--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Python_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF5254-0567-49B0-8083-A8802E63AE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6182BD-5653-42A0-81F3-E4831F7F8D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alg - easy" sheetId="1" r:id="rId1"/>
-    <sheet name="Alg - medium" sheetId="2" r:id="rId2"/>
-    <sheet name="Alg - hard" sheetId="4" r:id="rId3"/>
+    <sheet name="SQL" sheetId="5" r:id="rId1"/>
+    <sheet name="Alg - easy" sheetId="1" r:id="rId2"/>
+    <sheet name="Alg - medium" sheetId="2" r:id="rId3"/>
+    <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$D$1:$F$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1383">
   <si>
     <t>Title</t>
   </si>
@@ -4049,6 +4051,144 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine Two Tables    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Highest Salary    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employees Earning More Than Their Managers    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate Emails    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customers Who Never Order    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Duplicate Emails    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rising Temperature    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Play Analysis I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Play Analysis II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Bonus    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Customer Referee    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Placing the Largest Number of Orders    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Countries    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes More Than 5 Students    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend Requests I: Overall Acceptance Rate    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consecutive Available Seats    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Person    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangle Judgement    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortest Distance in a Line    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggest Single Number    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Boring Movies    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap Salary    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actors and Directors Who Cooperated At Least Three Times    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Sales Analysis I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Sales Analysis II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Employees I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Employees II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Analysis I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Analysis II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Analysis III    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported Posts    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Activity for the Past 30 Days I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Activity for the Past 30 Days II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article Views I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate Food Delivery I    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reformat Department Table    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queries Quality and Percentage    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Comments per Post    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Selling Price    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students and Examinations    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather Type in Each Country    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the Team Size    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ads Performance    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List the Products Ordered in a Period    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students With Invalid Departments    </t>
+  </si>
+  <si>
+    <t>Replace Employee ID With The Unique Identifier</t>
   </si>
 </sst>
 </file>
@@ -4418,12 +4558,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
+  <dimension ref="A1:F203"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>511</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>512</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>534</v>
+      </c>
+      <c r="B17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>550</v>
+      </c>
+      <c r="B18" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>571</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>574</v>
+      </c>
+      <c r="B22" t="s">
+        <v>650</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>577</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>578</v>
+      </c>
+      <c r="B24" t="s">
+        <v>652</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>579</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>580</v>
+      </c>
+      <c r="B26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>584</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>585</v>
+      </c>
+      <c r="B28" t="s">
+        <v>656</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>586</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>596</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>597</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>601</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>659</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>607</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>608</v>
+      </c>
+      <c r="B37" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>610</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>612</v>
+      </c>
+      <c r="B39" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>613</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>614</v>
+      </c>
+      <c r="B41" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>615</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>618</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>619</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>620</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>626</v>
+      </c>
+      <c r="B46" t="s">
+        <v>670</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>627</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>871</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1050</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1068</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1069</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1070</v>
+      </c>
+      <c r="B52" t="s">
+        <v>885</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1075</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1076</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1077</v>
+      </c>
+      <c r="B55" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1082</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1083</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1084</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1097</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1098</v>
+      </c>
+      <c r="B60" t="s">
+        <v>897</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>907</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>914</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>918</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>927</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1194</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>955</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>958</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1251</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>987</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1280</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1285</v>
+      </c>
+      <c r="B89" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1294</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1308</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1321</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1327</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1336</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1341</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1350</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1355</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1364</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1369</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1378</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="1"/>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D203" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D35"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8390,19 +9577,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15461,12 +16650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15476,7 +16665,7 @@
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -15486,8 +16675,11 @@
       <c r="C1" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -15496,7 +16688,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -15505,7 +16697,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -15514,7 +16706,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -15523,7 +16715,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -15532,7 +16724,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -15541,7 +16733,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -15550,7 +16742,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -15559,7 +16751,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42</v>
       </c>
@@ -15568,7 +16760,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -15577,7 +16769,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -15586,7 +16778,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -15595,7 +16787,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -15604,7 +16796,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -15613,7 +16805,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Python_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6182BD-5653-42A0-81F3-E4831F7F8D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518259A0-F1C7-4A9D-8B28-5002CD1CE86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
-    <sheet name="Alg - easy" sheetId="1" r:id="rId2"/>
-    <sheet name="Alg - medium" sheetId="2" r:id="rId3"/>
-    <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Alg - easy" sheetId="1" r:id="rId3"/>
+    <sheet name="Alg - medium" sheetId="2" r:id="rId4"/>
+    <sheet name="Alg - hard" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$D$1:$F$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1388">
   <si>
     <t>Title</t>
   </si>
@@ -4189,6 +4191,21 @@
   </si>
   <si>
     <t>Replace Employee ID With The Unique Identifier</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Replace Employee ID With The Unique Identifier    New</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -4561,7 +4578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4571,6 +4588,7 @@
     <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,6 +4604,9 @@
       <c r="D1" s="3" t="s">
         <v>1336</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4594,6 +4615,9 @@
       <c r="B2" t="s">
         <v>1337</v>
       </c>
+      <c r="E2" t="s">
+        <v>1383</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4603,608 +4627,825 @@
       <c r="B3" t="s">
         <v>1338</v>
       </c>
+      <c r="E3" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1339</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
-      </c>
+        <v>1340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>1341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>1339</v>
-      </c>
+        <v>1342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>1343</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>183</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
-        <v>1341</v>
+        <v>1344</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>184</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>1345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1383</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>185</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
-        <v>1297</v>
+        <v>1346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>196</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>1347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>197</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
-        <v>1343</v>
+        <v>1348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>262</v>
+        <v>595</v>
       </c>
       <c r="B14" t="s">
-        <v>1335</v>
+        <v>1349</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1383</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>511</v>
+        <v>596</v>
       </c>
       <c r="B15" t="s">
-        <v>1344</v>
+        <v>1350</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="B16" t="s">
-        <v>1345</v>
+        <v>1351</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1383</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="B17" t="s">
-        <v>626</v>
+        <v>1352</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="B18" t="s">
-        <v>638</v>
+        <v>1353</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1383</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="B19" t="s">
-        <v>1229</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>648</v>
+        <v>1355</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1383</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="B21" t="s">
-        <v>1228</v>
-      </c>
+        <v>1356</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="B22" t="s">
-        <v>650</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>1357</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>577</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>1346</v>
+        <v>1358</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>578</v>
+        <v>1050</v>
       </c>
       <c r="B24" t="s">
-        <v>652</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>1359</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>579</v>
+        <v>1068</v>
       </c>
       <c r="B25" t="s">
-        <v>1227</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>580</v>
+        <v>1069</v>
       </c>
       <c r="B26" t="s">
-        <v>653</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>1361</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>584</v>
+        <v>1075</v>
       </c>
       <c r="B27" t="s">
-        <v>1347</v>
+        <v>1362</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>585</v>
+        <v>1076</v>
       </c>
       <c r="B28" t="s">
-        <v>656</v>
+        <v>1363</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1383</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>586</v>
+        <v>1082</v>
       </c>
       <c r="B29" t="s">
-        <v>1348</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>595</v>
+        <v>1083</v>
       </c>
       <c r="B30" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>1365</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>596</v>
+        <v>1084</v>
       </c>
       <c r="B31" t="s">
-        <v>1350</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>597</v>
+        <v>1113</v>
       </c>
       <c r="B32" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>1367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>601</v>
+        <v>1141</v>
       </c>
       <c r="B33" t="s">
-        <v>1222</v>
+        <v>1368</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>602</v>
+        <v>1142</v>
       </c>
       <c r="B34" t="s">
-        <v>659</v>
+        <v>1369</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1383</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>603</v>
+        <v>1148</v>
       </c>
       <c r="B35" t="s">
-        <v>1352</v>
+        <v>1370</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>607</v>
+        <v>1173</v>
       </c>
       <c r="B36" t="s">
-        <v>1353</v>
+        <v>1371</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1383</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>608</v>
+        <v>1179</v>
       </c>
       <c r="B37" t="s">
-        <v>660</v>
-      </c>
+        <v>1372</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>610</v>
+        <v>1211</v>
       </c>
       <c r="B38" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>1373</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>612</v>
+        <v>1241</v>
       </c>
       <c r="B39" t="s">
-        <v>663</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>613</v>
+        <v>1251</v>
       </c>
       <c r="B40" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>1375</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>614</v>
+        <v>1280</v>
       </c>
       <c r="B41" t="s">
-        <v>664</v>
-      </c>
+        <v>1376</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>615</v>
+        <v>1294</v>
       </c>
       <c r="B42" t="s">
-        <v>1221</v>
+        <v>1377</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1383</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>618</v>
+        <v>1303</v>
       </c>
       <c r="B43" t="s">
-        <v>1220</v>
+        <v>1378</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>619</v>
+        <v>1322</v>
       </c>
       <c r="B44" t="s">
-        <v>1356</v>
+        <v>1379</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1383</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>620</v>
+        <v>1327</v>
       </c>
       <c r="B45" t="s">
-        <v>1357</v>
+        <v>1380</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>626</v>
+        <v>1350</v>
       </c>
       <c r="B46" t="s">
-        <v>670</v>
+        <v>1381</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1383</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>627</v>
+        <v>1378</v>
       </c>
       <c r="B47" t="s">
-        <v>1358</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1045</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>871</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1050</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>1359</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1068</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1069</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>1361</v>
+        <v>440</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1070</v>
+        <v>534</v>
       </c>
       <c r="B52" t="s">
-        <v>885</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1075</v>
+        <v>550</v>
       </c>
       <c r="B53" t="s">
-        <v>1362</v>
+        <v>638</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1076</v>
+        <v>570</v>
       </c>
       <c r="B54" t="s">
-        <v>1363</v>
+        <v>648</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1384</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1077</v>
+        <v>574</v>
       </c>
       <c r="B55" t="s">
-        <v>888</v>
+        <v>650</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1082</v>
+        <v>578</v>
       </c>
       <c r="B56" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>652</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1083</v>
+        <v>580</v>
       </c>
       <c r="B57" t="s">
-        <v>1365</v>
+        <v>653</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1084</v>
+        <v>585</v>
       </c>
       <c r="B58" t="s">
-        <v>1366</v>
+        <v>656</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1384</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1097</v>
+        <v>602</v>
       </c>
       <c r="B59" t="s">
-        <v>1099</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1098</v>
+        <v>608</v>
       </c>
       <c r="B60" t="s">
-        <v>897</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>660</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1107</v>
+        <v>612</v>
       </c>
       <c r="B61" t="s">
-        <v>903</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1112</v>
+        <v>614</v>
       </c>
       <c r="B62" t="s">
-        <v>907</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>664</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1113</v>
+        <v>626</v>
       </c>
       <c r="B63" t="s">
-        <v>1367</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1126</v>
+        <v>1045</v>
       </c>
       <c r="B64" t="s">
-        <v>914</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>871</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1127</v>
+        <v>1070</v>
       </c>
       <c r="B65" t="s">
-        <v>1093</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1132</v>
+        <v>1077</v>
       </c>
       <c r="B66" t="s">
-        <v>918</v>
+        <v>888</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1384</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1141</v>
+        <v>1098</v>
       </c>
       <c r="B67" t="s">
-        <v>1368</v>
+        <v>897</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1142</v>
+        <v>1107</v>
       </c>
       <c r="B68" t="s">
-        <v>1369</v>
+        <v>903</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1384</v>
       </c>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1148</v>
+        <v>1112</v>
       </c>
       <c r="B69" t="s">
-        <v>1370</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1149</v>
+        <v>1126</v>
       </c>
       <c r="B70" t="s">
-        <v>927</v>
+        <v>914</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1384</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="B71" t="s">
-        <v>932</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B72" t="s">
-        <v>1086</v>
+        <v>927</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1384</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B73" t="s">
-        <v>935</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="B74" t="s">
-        <v>1371</v>
+        <v>935</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1384</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -5215,239 +5456,319 @@
       <c r="B75" t="s">
         <v>940</v>
       </c>
+      <c r="E75" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="B76" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>948</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="B77" t="s">
-        <v>948</v>
+        <v>954</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="B78" t="s">
-        <v>1079</v>
+        <v>955</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1384</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="B79" t="s">
-        <v>954</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1205</v>
+        <v>1264</v>
       </c>
       <c r="B80" t="s">
-        <v>955</v>
+        <v>987</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1384</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1211</v>
+        <v>1270</v>
       </c>
       <c r="B81" t="s">
-        <v>1373</v>
+        <v>991</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1212</v>
+        <v>1285</v>
       </c>
       <c r="B82" t="s">
-        <v>958</v>
+        <v>998</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1384</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1225</v>
+        <v>1308</v>
       </c>
       <c r="B83" t="s">
-        <v>1073</v>
+        <v>1009</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1241</v>
+        <v>1321</v>
       </c>
       <c r="B84" t="s">
-        <v>1374</v>
+        <v>1016</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1384</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1251</v>
+        <v>1341</v>
       </c>
       <c r="B85" t="s">
-        <v>1375</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1264</v>
+        <v>1355</v>
       </c>
       <c r="B86" t="s">
-        <v>987</v>
+        <v>1032</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1384</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1270</v>
+        <v>1364</v>
       </c>
       <c r="B87" t="s">
-        <v>991</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1280</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>1297</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1285</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>998</v>
+        <v>1335</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1294</v>
+        <v>569</v>
       </c>
       <c r="B90" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F90" s="1"/>
+        <v>1229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1303</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s">
-        <v>1378</v>
+        <v>1228</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1308</v>
+        <v>579</v>
       </c>
       <c r="B92" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F92" s="1"/>
+        <v>1227</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1321</v>
+        <v>601</v>
       </c>
       <c r="B93" t="s">
-        <v>1016</v>
-      </c>
+        <v>1222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1322</v>
+        <v>615</v>
       </c>
       <c r="B94" t="s">
-        <v>1379</v>
+        <v>1221</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1385</v>
       </c>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1327</v>
+        <v>618</v>
       </c>
       <c r="B95" t="s">
-        <v>1380</v>
-      </c>
+        <v>1220</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1336</v>
+        <v>1097</v>
       </c>
       <c r="B96" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F96" s="1"/>
+        <v>1099</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1341</v>
+        <v>1127</v>
       </c>
       <c r="B97" t="s">
-        <v>1025</v>
+        <v>1093</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1350</v>
+        <v>1159</v>
       </c>
       <c r="B98" t="s">
-        <v>1381</v>
+        <v>1086</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1385</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1355</v>
+        <v>1194</v>
       </c>
       <c r="B99" t="s">
-        <v>1032</v>
+        <v>1079</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1364</v>
+        <v>1225</v>
       </c>
       <c r="B100" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F100" s="1"/>
+        <v>1073</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1369</v>
+        <v>1336</v>
       </c>
       <c r="B101" t="s">
-        <v>1048</v>
+        <v>1055</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="B102" t="s">
-        <v>1382</v>
+        <v>1048</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1385</v>
       </c>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" s="1"/>
@@ -5605,6 +5926,2462 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FE177-BEC3-4724-B09C-B920257EF4C6}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E203"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E2">
+        <f>MOD(ROW(),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>176</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>177</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>180</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>181</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>182</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>183</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>184</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>185</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>196</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>197</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>262</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>511</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>512</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>534</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>550</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>638</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>569</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>570</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>571</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>574</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>650</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>577</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>578</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>579</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>580</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>584</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>585</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>656</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>586</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>595</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>596</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.374</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>597</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>601</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>602</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>659</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>603</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>607</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>608</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>660</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>610</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>612</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>663</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>613</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>614</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>664</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>615</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>618</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>619</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>620</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>626</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>670</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>627</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1045</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>871</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1050</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1068</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1069</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1070</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>885</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1075</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1076</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1077</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>888</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1082</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1083</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1084</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1097</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1098</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>897</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1107</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>903</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1112</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>907</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1113</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1126</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>914</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1127</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1132</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>918</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1141</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1142</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1148</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1149</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>927</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1158</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>932</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1159</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1164</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>935</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1173</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1174</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>940</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1179</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1193</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>948</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1194</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1204</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>954</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1205</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>955</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1211</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1212</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>958</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1225</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1241</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1251</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1264</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>987</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1270</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>991</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1280</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1285</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>998</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1294</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1303</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1308</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1321</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1322</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1327</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1336</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1341</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1350</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1355</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E203" si="3">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1364</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1369</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1378</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E203" xr:uid="{E28890C3-8AE0-4A9A-824A-DCE1DE8F6549}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
@@ -9577,12 +12354,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16650,7 +19427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D289"/>
   <sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Python_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518259A0-F1C7-4A9D-8B28-5002CD1CE86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997F7CE-1E12-4A13-85C2-C85EEE0EFF7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Alg - easy" sheetId="1" r:id="rId3"/>
-    <sheet name="Alg - medium" sheetId="2" r:id="rId4"/>
-    <sheet name="Alg - hard" sheetId="4" r:id="rId5"/>
+    <sheet name="Alg - easy" sheetId="1" r:id="rId2"/>
+    <sheet name="Alg - medium" sheetId="2" r:id="rId3"/>
+    <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4200,9 +4198,6 @@
   </si>
   <si>
     <t>Hard</t>
-  </si>
-  <si>
-    <t>Replace Employee ID With The Unique Identifier    New</t>
   </si>
   <si>
     <t>Level</t>
@@ -4578,8 +4573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,7 +4582,7 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4605,7 +4600,7 @@
         <v>1336</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4615,7 +4610,13 @@
       <c r="B2" t="s">
         <v>1337</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F2" s="1"/>
@@ -4627,7 +4628,13 @@
       <c r="B3" t="s">
         <v>1338</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4638,7 +4645,13 @@
       <c r="B4" t="s">
         <v>1339</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4649,7 +4662,13 @@
       <c r="B5" t="s">
         <v>1340</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F5" s="1"/>
@@ -4661,7 +4680,13 @@
       <c r="B6" t="s">
         <v>1341</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4672,7 +4697,13 @@
       <c r="B7" t="s">
         <v>1342</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F7" s="1"/>
@@ -4684,7 +4715,13 @@
       <c r="B8" t="s">
         <v>1343</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4695,7 +4732,9 @@
       <c r="B9" t="s">
         <v>1344</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4706,7 +4745,9 @@
       <c r="B10" t="s">
         <v>1345</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F10" s="1"/>
@@ -4718,7 +4759,9 @@
       <c r="B11" t="s">
         <v>1346</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4729,7 +4772,9 @@
       <c r="B12" t="s">
         <v>1347</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4740,7 +4785,9 @@
       <c r="B13" t="s">
         <v>1348</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4751,7 +4798,9 @@
       <c r="B14" t="s">
         <v>1349</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F14" s="1"/>
@@ -4763,7 +4812,9 @@
       <c r="B15" t="s">
         <v>1350</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4774,7 +4825,9 @@
       <c r="B16" t="s">
         <v>1351</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F16" s="1"/>
@@ -4786,7 +4839,9 @@
       <c r="B17" t="s">
         <v>1352</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4797,7 +4852,9 @@
       <c r="B18" t="s">
         <v>1353</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F18" s="1"/>
@@ -4809,7 +4866,9 @@
       <c r="B19" t="s">
         <v>1354</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F19" s="1"/>
@@ -4821,7 +4880,9 @@
       <c r="B20" t="s">
         <v>1355</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F20" s="1"/>
@@ -4833,7 +4894,9 @@
       <c r="B21" t="s">
         <v>1356</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F21" s="1"/>
@@ -4845,7 +4908,9 @@
       <c r="B22" t="s">
         <v>1357</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4856,7 +4921,9 @@
       <c r="B23" t="s">
         <v>1358</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4867,7 +4934,9 @@
       <c r="B24" t="s">
         <v>1359</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4878,7 +4947,9 @@
       <c r="B25" t="s">
         <v>1360</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F25" s="1"/>
@@ -4890,7 +4961,9 @@
       <c r="B26" t="s">
         <v>1361</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4901,7 +4974,9 @@
       <c r="B27" t="s">
         <v>1362</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4912,7 +4987,9 @@
       <c r="B28" t="s">
         <v>1363</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F28" s="1"/>
@@ -4924,7 +5001,9 @@
       <c r="B29" t="s">
         <v>1364</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F29" s="1"/>
@@ -4936,7 +5015,9 @@
       <c r="B30" t="s">
         <v>1365</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4947,7 +5028,9 @@
       <c r="B31" t="s">
         <v>1366</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F31" s="1"/>
@@ -4959,7 +5042,9 @@
       <c r="B32" t="s">
         <v>1367</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4970,7 +5055,9 @@
       <c r="B33" t="s">
         <v>1368</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -4981,7 +5068,9 @@
       <c r="B34" t="s">
         <v>1369</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F34" s="1"/>
@@ -4993,7 +5082,9 @@
       <c r="B35" t="s">
         <v>1370</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -5004,7 +5095,9 @@
       <c r="B36" t="s">
         <v>1371</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F36" s="1"/>
@@ -5016,7 +5109,9 @@
       <c r="B37" t="s">
         <v>1372</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F37" s="1"/>
@@ -5028,7 +5123,9 @@
       <c r="B38" t="s">
         <v>1373</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -5039,7 +5136,9 @@
       <c r="B39" t="s">
         <v>1374</v>
       </c>
-      <c r="E39" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F39" s="1"/>
@@ -5051,7 +5150,9 @@
       <c r="B40" t="s">
         <v>1375</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -5062,7 +5163,9 @@
       <c r="B41" t="s">
         <v>1376</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F41" s="1"/>
@@ -5074,7 +5177,9 @@
       <c r="B42" t="s">
         <v>1377</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F42" s="1"/>
@@ -5086,7 +5191,9 @@
       <c r="B43" t="s">
         <v>1378</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -5097,7 +5204,9 @@
       <c r="B44" t="s">
         <v>1379</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F44" s="1"/>
@@ -5109,7 +5218,9 @@
       <c r="B45" t="s">
         <v>1380</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -5120,7 +5231,9 @@
       <c r="B46" t="s">
         <v>1381</v>
       </c>
-      <c r="E46" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F46" s="1"/>
@@ -5132,7 +5245,9 @@
       <c r="B47" t="s">
         <v>1382</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F47" s="1"/>
@@ -5144,7 +5259,9 @@
       <c r="B48" t="s">
         <v>436</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5155,7 +5272,9 @@
       <c r="B49" t="s">
         <v>437</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F49" s="1"/>
@@ -5167,7 +5286,9 @@
       <c r="B50" t="s">
         <v>439</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5178,7 +5299,9 @@
       <c r="B51" t="s">
         <v>440</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5189,7 +5312,9 @@
       <c r="B52" t="s">
         <v>626</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5200,7 +5325,9 @@
       <c r="B53" t="s">
         <v>638</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5211,7 +5338,9 @@
       <c r="B54" t="s">
         <v>648</v>
       </c>
-      <c r="E54" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F54" s="1"/>
@@ -5223,7 +5352,9 @@
       <c r="B55" t="s">
         <v>650</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5234,7 +5365,9 @@
       <c r="B56" t="s">
         <v>652</v>
       </c>
-      <c r="E56" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5245,7 +5378,9 @@
       <c r="B57" t="s">
         <v>653</v>
       </c>
-      <c r="E57" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5256,7 +5391,9 @@
       <c r="B58" t="s">
         <v>656</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F58" s="1"/>
@@ -5268,7 +5405,9 @@
       <c r="B59" t="s">
         <v>659</v>
       </c>
-      <c r="E59" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F59" s="1"/>
@@ -5280,7 +5419,9 @@
       <c r="B60" t="s">
         <v>660</v>
       </c>
-      <c r="E60" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5291,7 +5432,9 @@
       <c r="B61" t="s">
         <v>663</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F61" s="1"/>
@@ -5303,7 +5446,9 @@
       <c r="B62" t="s">
         <v>664</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5314,7 +5459,9 @@
       <c r="B63" t="s">
         <v>670</v>
       </c>
-      <c r="E63" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F63" s="1"/>
@@ -5326,7 +5473,9 @@
       <c r="B64" t="s">
         <v>871</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5337,7 +5486,9 @@
       <c r="B65" t="s">
         <v>885</v>
       </c>
-      <c r="E65" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F65" s="1"/>
@@ -5349,7 +5500,9 @@
       <c r="B66" t="s">
         <v>888</v>
       </c>
-      <c r="E66" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F66" s="1"/>
@@ -5361,7 +5514,9 @@
       <c r="B67" t="s">
         <v>897</v>
       </c>
-      <c r="E67" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5372,7 +5527,9 @@
       <c r="B68" t="s">
         <v>903</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F68" s="1"/>
@@ -5384,7 +5541,9 @@
       <c r="B69" t="s">
         <v>907</v>
       </c>
-      <c r="E69" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F69" s="1"/>
@@ -5396,7 +5555,9 @@
       <c r="B70" t="s">
         <v>914</v>
       </c>
-      <c r="E70" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F70" s="1"/>
@@ -5408,7 +5569,9 @@
       <c r="B71" t="s">
         <v>918</v>
       </c>
-      <c r="E71" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F71" s="1"/>
@@ -5420,7 +5583,9 @@
       <c r="B72" t="s">
         <v>927</v>
       </c>
-      <c r="E72" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F72" s="1"/>
@@ -5432,7 +5597,9 @@
       <c r="B73" t="s">
         <v>932</v>
       </c>
-      <c r="E73" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F73" s="1"/>
@@ -5444,7 +5611,9 @@
       <c r="B74" t="s">
         <v>935</v>
       </c>
-      <c r="E74" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F74" s="1"/>
@@ -5456,7 +5625,9 @@
       <c r="B75" t="s">
         <v>940</v>
       </c>
-      <c r="E75" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5467,7 +5638,9 @@
       <c r="B76" t="s">
         <v>948</v>
       </c>
-      <c r="E76" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5478,7 +5651,9 @@
       <c r="B77" t="s">
         <v>954</v>
       </c>
-      <c r="E77" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5489,7 +5664,9 @@
       <c r="B78" t="s">
         <v>955</v>
       </c>
-      <c r="E78" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F78" s="1"/>
@@ -5501,7 +5678,9 @@
       <c r="B79" t="s">
         <v>958</v>
       </c>
-      <c r="E79" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F79" s="1"/>
@@ -5513,7 +5692,9 @@
       <c r="B80" t="s">
         <v>987</v>
       </c>
-      <c r="E80" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F80" s="1"/>
@@ -5525,7 +5706,9 @@
       <c r="B81" t="s">
         <v>991</v>
       </c>
-      <c r="E81" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5536,7 +5719,9 @@
       <c r="B82" t="s">
         <v>998</v>
       </c>
-      <c r="E82" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F82" s="1"/>
@@ -5548,7 +5733,9 @@
       <c r="B83" t="s">
         <v>1009</v>
       </c>
-      <c r="E83" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -5559,7 +5746,9 @@
       <c r="B84" t="s">
         <v>1016</v>
       </c>
-      <c r="E84" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F84" s="1"/>
@@ -5571,7 +5760,9 @@
       <c r="B85" t="s">
         <v>1025</v>
       </c>
-      <c r="E85" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F85" s="1"/>
@@ -5583,7 +5774,9 @@
       <c r="B86" t="s">
         <v>1032</v>
       </c>
-      <c r="E86" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F86" s="1"/>
@@ -5595,7 +5788,9 @@
       <c r="B87" t="s">
         <v>1037</v>
       </c>
-      <c r="E87" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
         <v>1384</v>
       </c>
       <c r="F87" s="1"/>
@@ -5607,7 +5802,9 @@
       <c r="B88" t="s">
         <v>1297</v>
       </c>
-      <c r="E88" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5618,7 +5815,9 @@
       <c r="B89" t="s">
         <v>1335</v>
       </c>
-      <c r="E89" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5629,7 +5828,9 @@
       <c r="B90" t="s">
         <v>1229</v>
       </c>
-      <c r="E90" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5640,7 +5841,9 @@
       <c r="B91" t="s">
         <v>1228</v>
       </c>
-      <c r="E91" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5651,7 +5854,9 @@
       <c r="B92" t="s">
         <v>1227</v>
       </c>
-      <c r="E92" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5662,7 +5867,9 @@
       <c r="B93" t="s">
         <v>1222</v>
       </c>
-      <c r="E93" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
         <v>1385</v>
       </c>
       <c r="F93" s="1"/>
@@ -5674,7 +5881,9 @@
       <c r="B94" t="s">
         <v>1221</v>
       </c>
-      <c r="E94" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
         <v>1385</v>
       </c>
       <c r="F94" s="1"/>
@@ -5686,7 +5895,9 @@
       <c r="B95" t="s">
         <v>1220</v>
       </c>
-      <c r="E95" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
         <v>1385</v>
       </c>
       <c r="F95" s="1"/>
@@ -5698,7 +5909,9 @@
       <c r="B96" t="s">
         <v>1099</v>
       </c>
-      <c r="E96" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5709,7 +5922,9 @@
       <c r="B97" t="s">
         <v>1093</v>
       </c>
-      <c r="E97" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5720,7 +5935,9 @@
       <c r="B98" t="s">
         <v>1086</v>
       </c>
-      <c r="E98" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
         <v>1385</v>
       </c>
       <c r="F98" s="1"/>
@@ -5732,7 +5949,9 @@
       <c r="B99" t="s">
         <v>1079</v>
       </c>
-      <c r="E99" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5743,7 +5962,9 @@
       <c r="B100" t="s">
         <v>1073</v>
       </c>
-      <c r="E100" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5754,7 +5975,9 @@
       <c r="B101" t="s">
         <v>1055</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -5765,7 +5988,9 @@
       <c r="B102" t="s">
         <v>1048</v>
       </c>
-      <c r="E102" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2" t="s">
         <v>1385</v>
       </c>
       <c r="F102" s="1"/>
@@ -5926,2467 +6151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FE177-BEC3-4724-B09C-B920257EF4C6}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E203"/>
-  <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D202"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E2">
-        <f>MOD(ROW(),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>176</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">MOD(ROW(),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>177</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>178</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>180</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.377</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>181</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>182</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>183</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.504</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>184</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>185</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.318</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>196</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>197</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.373</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>262</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>511</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>512</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>534</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>626</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>550</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>638</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>569</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>570</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>648</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>571</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>574</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>650</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>577</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>578</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>652</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.371</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>579</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>580</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>653</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>584</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>585</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>656</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>586</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>595</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>596</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.374</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>597</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>601</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>602</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>659</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.502</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>603</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">MOD(ROW(),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.621</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>607</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>608</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>660</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>610</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>612</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>663</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>613</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>614</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>664</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>615</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>618</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>619</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>620</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>626</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>670</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>627</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1045</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>871</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1050</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1068</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1069</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1070</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>885</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1075</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1076</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1077</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>888</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1082</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1083</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1084</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1097</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1098</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>897</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.433</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1107</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>903</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1112</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>907</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1113</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1126</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>914</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1127</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1132</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>918</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1141</v>
-      </c>
-      <c r="E131">
-        <f t="shared" ref="E131:E194" si="2">MOD(ROW(),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1142</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1148</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.753</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1149</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>927</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1158</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>932</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1159</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1164</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>935</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1173</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1174</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>940</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1179</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1193</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>948</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1194</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C154" s="1">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1204</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>954</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1205</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>955</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1211</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1212</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>958</v>
-      </c>
-      <c r="C162" s="1">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1225</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C164" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1241</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1251</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1264</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>987</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1270</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>991</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1280</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C174" s="1">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1285</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>998</v>
-      </c>
-      <c r="C176" s="1">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1294</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1303</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C180" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1308</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1321</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C184" s="1">
-        <v>0.628</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1322</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C186" s="1">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1327</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C188" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1336</v>
-      </c>
-      <c r="E189">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C190" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1341</v>
-      </c>
-      <c r="E191">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C192" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1350</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C194" s="1">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1355</v>
-      </c>
-      <c r="E195">
-        <f t="shared" ref="E195:E203" si="3">MOD(ROW(),2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C196" s="1">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1364</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C198" s="1">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1369</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C200" s="1">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1378</v>
-      </c>
-      <c r="E201">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="E203">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E203" xr:uid="{E28890C3-8AE0-4A9A-824A-DCE1DE8F6549}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12354,13 +10123,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19427,11 +17196,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Python_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410C9F12-C1DD-4E20-84BB-E42D46E997DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F210484-2A41-46C8-9C4B-3F6AEFBF650E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E102"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,8 +4740,12 @@
       <c r="B9" t="s">
         <v>1344</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43908</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4753,8 +4757,12 @@
       <c r="B10" t="s">
         <v>1345</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43908</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4767,8 +4775,12 @@
       <c r="B11" t="s">
         <v>1346</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43908</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4780,8 +4792,12 @@
       <c r="B12" t="s">
         <v>1347</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43908</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>1383</v>
       </c>
@@ -6163,8 +6179,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D340"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17238,7 +17254,7 @@
   <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D340"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Python_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F210484-2A41-46C8-9C4B-3F6AEFBF650E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1F8EE-D4AB-4579-905E-C2EE1F61855A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,8 +4809,12 @@
       <c r="B13" t="s">
         <v>1348</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43908</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4822,8 +4826,12 @@
       <c r="B14" t="s">
         <v>1349</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43908</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4836,8 +4844,12 @@
       <c r="B15" t="s">
         <v>1350</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43908</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4849,8 +4861,12 @@
       <c r="B16" t="s">
         <v>1351</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43908</v>
+      </c>
       <c r="E16" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4863,8 +4879,12 @@
       <c r="B17" t="s">
         <v>1352</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43908</v>
+      </c>
       <c r="E17" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4876,8 +4896,12 @@
       <c r="B18" t="s">
         <v>1353</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43908</v>
+      </c>
       <c r="E18" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4890,8 +4914,12 @@
       <c r="B19" t="s">
         <v>1354</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43908</v>
+      </c>
       <c r="E19" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4904,8 +4932,12 @@
       <c r="B20" t="s">
         <v>1355</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43908</v>
+      </c>
       <c r="E20" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4918,8 +4950,12 @@
       <c r="B21" t="s">
         <v>1356</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43908</v>
+      </c>
       <c r="E21" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4932,8 +4968,12 @@
       <c r="B22" t="s">
         <v>1357</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43908</v>
+      </c>
       <c r="E22" s="6" t="s">
         <v>1383</v>
       </c>
@@ -4945,8 +4985,12 @@
       <c r="B23" t="s">
         <v>1358</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43908</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>1383</v>
       </c>
@@ -6179,8 +6223,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,9 +10196,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D340"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17253,7 +17295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1F8EE-D4AB-4579-905E-C2EE1F61855A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0517638F-0367-4890-851E-0C6D8DEC4603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -6223,8 +6223,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D340"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,8 +6382,12 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43908</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6392,8 +6396,12 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43908</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6402,8 +6410,12 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43908</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6412,8 +6424,12 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43908</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6422,8 +6438,12 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6432,8 +6452,12 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -6442,8 +6466,12 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -6452,8 +6480,12 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -6462,8 +6494,12 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -17295,7 +17331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0517638F-0367-4890-851E-0C6D8DEC4603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB2AAD-1485-4EC3-820F-F8F3AFFC3ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1725" windowWidth="16440" windowHeight="27195" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-24645" yWindow="1365" windowWidth="12150" windowHeight="11625" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E102"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,8 +5002,12 @@
       <c r="B24" t="s">
         <v>1359</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43909</v>
+      </c>
       <c r="E24" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5015,12 +5019,15 @@
       <c r="B25" t="s">
         <v>1360</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43909</v>
+      </c>
       <c r="E25" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5029,8 +5036,12 @@
       <c r="B26" t="s">
         <v>1361</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43909</v>
+      </c>
       <c r="E26" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5042,8 +5053,12 @@
       <c r="B27" t="s">
         <v>1362</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43909</v>
+      </c>
       <c r="E27" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5055,12 +5070,15 @@
       <c r="B28" t="s">
         <v>1363</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43909</v>
+      </c>
       <c r="E28" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5069,12 +5087,15 @@
       <c r="B29" t="s">
         <v>1364</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43909</v>
+      </c>
       <c r="E29" s="6" t="s">
         <v>1383</v>
       </c>
-      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5083,8 +5104,12 @@
       <c r="B30" t="s">
         <v>1365</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43909</v>
+      </c>
       <c r="E30" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5096,8 +5121,12 @@
       <c r="B31" t="s">
         <v>1366</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43909</v>
+      </c>
       <c r="E31" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5110,8 +5139,12 @@
       <c r="B32" t="s">
         <v>1367</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43909</v>
+      </c>
       <c r="E32" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5123,8 +5156,12 @@
       <c r="B33" t="s">
         <v>1368</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43909</v>
+      </c>
       <c r="E33" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5136,8 +5173,12 @@
       <c r="B34" t="s">
         <v>1369</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43909</v>
+      </c>
       <c r="E34" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5150,8 +5191,12 @@
       <c r="B35" t="s">
         <v>1370</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43909</v>
+      </c>
       <c r="E35" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5163,8 +5208,12 @@
       <c r="B36" t="s">
         <v>1371</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43909</v>
+      </c>
       <c r="E36" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5177,8 +5226,12 @@
       <c r="B37" t="s">
         <v>1372</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="7">
+        <v>43909</v>
+      </c>
       <c r="E37" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5191,8 +5244,12 @@
       <c r="B38" t="s">
         <v>1373</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="7">
+        <v>43909</v>
+      </c>
       <c r="E38" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5204,8 +5261,12 @@
       <c r="B39" t="s">
         <v>1374</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43909</v>
+      </c>
       <c r="E39" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5218,8 +5279,12 @@
       <c r="B40" t="s">
         <v>1375</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43909</v>
+      </c>
       <c r="E40" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5231,8 +5296,12 @@
       <c r="B41" t="s">
         <v>1376</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43909</v>
+      </c>
       <c r="E41" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5245,8 +5314,12 @@
       <c r="B42" t="s">
         <v>1377</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43909</v>
+      </c>
       <c r="E42" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5259,8 +5332,12 @@
       <c r="B43" t="s">
         <v>1378</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43909</v>
+      </c>
       <c r="E43" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5272,8 +5349,12 @@
       <c r="B44" t="s">
         <v>1379</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43909</v>
+      </c>
       <c r="E44" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5286,8 +5367,12 @@
       <c r="B45" t="s">
         <v>1380</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="7">
+        <v>43909</v>
+      </c>
       <c r="E45" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5299,8 +5384,12 @@
       <c r="B46" t="s">
         <v>1381</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" s="7">
+        <v>43909</v>
+      </c>
       <c r="E46" s="6" t="s">
         <v>1383</v>
       </c>
@@ -5313,8 +5402,12 @@
       <c r="B47" t="s">
         <v>1382</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="7">
+        <v>43909</v>
+      </c>
       <c r="E47" s="6" t="s">
         <v>1383</v>
       </c>
@@ -6223,7 +6316,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB2AAD-1485-4EC3-820F-F8F3AFFC3ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6139D-2B03-4CB8-9708-05887E8CDD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24645" yWindow="1365" windowWidth="12150" windowHeight="11625" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-24645" yWindow="1365" windowWidth="12150" windowHeight="11625" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C2:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6139D-2B03-4CB8-9708-05887E8CDD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEC6F6-C5E5-48A2-86F8-4D8BCE9D6B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24645" yWindow="1365" windowWidth="12150" windowHeight="11625" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6601,8 +6601,12 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -6611,8 +6615,12 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -6621,8 +6629,12 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -6631,8 +6643,12 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -6641,8 +6657,12 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -6651,8 +6671,12 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -6661,8 +6685,12 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43909</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEC6F6-C5E5-48A2-86F8-4D8BCE9D6B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABA7B0-50AB-4BF9-A1F3-0B1F47E2D34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABA7B0-50AB-4BF9-A1F3-0B1F47E2D34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB026596-50BF-4A5E-9A14-FA5C3F315243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D340"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,8 +6699,12 @@
       <c r="B27" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -6709,8 +6713,12 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -6719,8 +6727,12 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -10353,7 +10365,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D446" sqref="D446"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10384,8 +10398,12 @@
       <c r="B2" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -10414,8 +10432,12 @@
       <c r="B5" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -14830,8 +14852,12 @@
       <c r="B445" t="s">
         <v>785</v>
       </c>
-      <c r="C445" s="2"/>
-      <c r="D445" s="4"/>
+      <c r="C445" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D445" s="4">
+        <v>43910</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB026596-50BF-4A5E-9A14-FA5C3F315243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841A654-5B37-481F-852D-DE4CBDB33467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6741,8 +6741,12 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -6751,8 +6755,12 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -6761,8 +6769,12 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -6771,8 +6783,12 @@
       <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -6781,8 +6797,12 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -10365,9 +10385,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D446" sqref="D446"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841A654-5B37-481F-852D-DE4CBDB33467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3C3D1-A77E-4332-B62D-DD6D17C32639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6316,8 +6316,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10385,7 +10385,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D706"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A674" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A706"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17496,8 +17498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3C3D1-A77E-4332-B62D-DD6D17C32639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D12779-DDFB-45CF-939E-2EA63B72A92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A102"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,8 +5976,12 @@
       <c r="B89" t="s">
         <v>1335</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="7">
+        <v>43912</v>
+      </c>
       <c r="E89" s="6" t="s">
         <v>1385</v>
       </c>
@@ -6316,7 +6320,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A340"/>
     </sheetView>
   </sheetViews>
@@ -17498,7 +17502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D12779-DDFB-45CF-939E-2EA63B72A92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D87096-1490-4FDD-9E3A-24FF97D033DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -6320,8 +6320,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A340"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6829,8 +6829,12 @@
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -6839,8 +6843,12 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -6849,8 +6857,12 @@
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -7819,8 +7831,12 @@
       <c r="B135" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
+      <c r="C135" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D135" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D87096-1490-4FDD-9E3A-24FF97D033DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D75C4-1C67-43D8-A1EB-0FBDE3DBE767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-135" yWindow="780" windowWidth="29070" windowHeight="15555" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -6321,7 +6321,7 @@
   <dimension ref="A1:D678"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+      <selection activeCell="C136" sqref="A1:D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D75C4-1C67-43D8-A1EB-0FBDE3DBE767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D46ED4-0A93-4930-94C9-5C15FE4B0539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="780" windowWidth="29070" windowHeight="15555" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1387">
   <si>
     <t>Title</t>
   </si>
@@ -6320,8 +6320,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="A1:D340"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,8 +6871,12 @@
       <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -6881,8 +6885,12 @@
       <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -6891,8 +6899,12 @@
       <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -6901,8 +6913,12 @@
       <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="C42" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -6911,8 +6927,12 @@
       <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="C43" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -6921,8 +6941,12 @@
       <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -6931,8 +6955,12 @@
       <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="7">
+        <v>43912</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E701A-8AD1-4B8B-8D4E-D651AA10CC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1524F56-0372-4E38-BC32-31D1D0BD2700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="22695" windowHeight="14745" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="22695" windowHeight="14745" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$679</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$576</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$C$1:$D$706</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$C$1:$D$704</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1388">
   <si>
     <t>Title</t>
   </si>
@@ -4585,10 +4585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6379,156 +6380,6 @@
         <v>342</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F104" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F106" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F108" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F110" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F112" s="1"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F114" s="1"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F116" s="1"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F118" s="1"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F120" s="1"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F122" s="1"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F124" s="1"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F126" s="1"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F128" s="1"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F130" s="1"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F132" s="1"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F134" s="1"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F136" s="1"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F138" s="1"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F140" s="1"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F142" s="1"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F144" s="1"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F146" s="1"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F148" s="1"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F150" s="1"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F152" s="1"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F154" s="1"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F156" s="1"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F158" s="1"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F160" s="1"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F162" s="1"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F164" s="1"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F166" s="1"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F168" s="1"/>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F170" s="1"/>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F172" s="1"/>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F174" s="1"/>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F176" s="1"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F178" s="1"/>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F180" s="1"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F182" s="1"/>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F184" s="1"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F186" s="1"/>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F188" s="1"/>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F190" s="1"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F192" s="1"/>
-    </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F194" s="1"/>
-    </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F196" s="1"/>
-    </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F198" s="1"/>
-    </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F200" s="1"/>
-    </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D203" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6537,10 +6388,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E678"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView topLeftCell="B304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E340"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7121,7 +6974,9 @@
       <c r="D38" s="7">
         <v>43912</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
@@ -7196,7 +7051,9 @@
       <c r="D43" s="7">
         <v>43912</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
@@ -7446,7 +7303,9 @@
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
@@ -7457,7 +7316,9 @@
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
@@ -7468,7 +7329,9 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
@@ -7479,7 +7342,9 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
@@ -7523,7 +7388,9 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
@@ -7545,7 +7412,9 @@
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
@@ -7556,7 +7425,9 @@
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
@@ -7611,7 +7482,9 @@
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
@@ -7655,7 +7528,9 @@
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
@@ -7699,7 +7574,9 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
@@ -7732,7 +7609,9 @@
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
@@ -7853,7 +7732,9 @@
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
@@ -7908,7 +7789,9 @@
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
@@ -8407,7 +8290,9 @@
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
@@ -8451,7 +8336,9 @@
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
@@ -8748,7 +8635,9 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
@@ -8814,7 +8703,9 @@
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
@@ -8869,7 +8760,9 @@
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="7"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
@@ -8880,7 +8773,9 @@
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
@@ -8891,7 +8786,9 @@
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
@@ -8979,7 +8876,9 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="7"/>
-      <c r="E204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
@@ -9771,7 +9670,9 @@
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
-      <c r="E276" s="2"/>
+      <c r="E276" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
@@ -9782,7 +9683,9 @@
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="7"/>
-      <c r="E277" s="2"/>
+      <c r="E277" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
@@ -9793,7 +9696,9 @@
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="7"/>
-      <c r="E278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
@@ -9826,7 +9731,9 @@
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="7"/>
-      <c r="E281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
@@ -9837,7 +9744,9 @@
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="7"/>
-      <c r="E282" s="2"/>
+      <c r="E282" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
@@ -9859,7 +9768,9 @@
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
-      <c r="E284" s="2"/>
+      <c r="E284" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
@@ -9892,7 +9803,9 @@
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="7"/>
-      <c r="E287" s="2"/>
+      <c r="E287" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
@@ -9903,7 +9816,9 @@
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
-      <c r="E288" s="2"/>
+      <c r="E288" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
@@ -9936,7 +9851,9 @@
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="7"/>
-      <c r="E291" s="2"/>
+      <c r="E291" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
@@ -9947,7 +9864,9 @@
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="7"/>
-      <c r="E292" s="2"/>
+      <c r="E292" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
@@ -9969,7 +9888,9 @@
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
-      <c r="E294" s="2"/>
+      <c r="E294" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
@@ -10002,7 +9923,9 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
-      <c r="E297" s="2"/>
+      <c r="E297" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
@@ -10035,7 +9958,9 @@
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="7"/>
-      <c r="E300" s="2"/>
+      <c r="E300" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
@@ -10046,7 +9971,9 @@
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
-      <c r="E301" s="2"/>
+      <c r="E301" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
@@ -10090,7 +10017,9 @@
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
@@ -10123,7 +10052,9 @@
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="7"/>
-      <c r="E308" s="2"/>
+      <c r="E308" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
@@ -10156,7 +10087,9 @@
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
-      <c r="E311" s="2"/>
+      <c r="E311" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
@@ -10189,7 +10122,9 @@
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
-      <c r="E314" s="2"/>
+      <c r="E314" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
@@ -10233,7 +10168,9 @@
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="7"/>
-      <c r="E318" s="2"/>
+      <c r="E318" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319">
@@ -10476,513 +10413,6 @@
       <c r="C340" s="6"/>
       <c r="D340" s="7"/>
       <c r="E340" s="2"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B348" s="1"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B350" s="1"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B352" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B356" s="1"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B358" s="1"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B360" s="1"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B362" s="1"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B364" s="1"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B366" s="1"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B368" s="1"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B370" s="1"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B372" s="1"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B374" s="1"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B376" s="1"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B378" s="1"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B380" s="1"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B382" s="1"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B384" s="1"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B386" s="1"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B390" s="1"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B392" s="1"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B394" s="1"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B396" s="1"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B398" s="1"/>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B400" s="1"/>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B402" s="1"/>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B404" s="1"/>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B406" s="1"/>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B408" s="1"/>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B410" s="1"/>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B412" s="1"/>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B414" s="1"/>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B416" s="1"/>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B418" s="1"/>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B420" s="1"/>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B422" s="1"/>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B424" s="1"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B426" s="1"/>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B428" s="1"/>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B430" s="1"/>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B432" s="1"/>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B434" s="1"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B436" s="1"/>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B438" s="1"/>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B440" s="1"/>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B442" s="1"/>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B444" s="1"/>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B446" s="1"/>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B448" s="1"/>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B450" s="1"/>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B452" s="1"/>
-    </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B454" s="1"/>
-    </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B456" s="1"/>
-    </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B458" s="1"/>
-    </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B460" s="1"/>
-    </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B462" s="1"/>
-    </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B464" s="1"/>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B466" s="1"/>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B468" s="1"/>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B470" s="1"/>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B472" s="1"/>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B474" s="1"/>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B476" s="1"/>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B478" s="1"/>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B480" s="1"/>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B482" s="1"/>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B484" s="1"/>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B486" s="1"/>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B488" s="1"/>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B490" s="1"/>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B492" s="1"/>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B494" s="1"/>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B496" s="1"/>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B498" s="1"/>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B500" s="1"/>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B502" s="1"/>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B504" s="1"/>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B506" s="1"/>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B508" s="1"/>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B510" s="1"/>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B512" s="1"/>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B514" s="1"/>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B520" s="1"/>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B522" s="1"/>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B524" s="1"/>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B526" s="1"/>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B528" s="1"/>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B530" s="1"/>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B532" s="1"/>
-    </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B534" s="1"/>
-    </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B538" s="1"/>
-    </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B540" s="1"/>
-    </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B542" s="1"/>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B544" s="1"/>
-    </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B548" s="1"/>
-    </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B550" s="1"/>
-    </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B554" s="1"/>
-    </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B556" s="1"/>
-    </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B558" s="1"/>
-    </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B566" s="1"/>
-    </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B568" s="1"/>
-    </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B570" s="1"/>
-    </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B572" s="1"/>
-    </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B574" s="1"/>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B576" s="1"/>
-    </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B578" s="1"/>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B580" s="1"/>
-    </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B582" s="1"/>
-    </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B584" s="1"/>
-    </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B586" s="1"/>
-    </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B588" s="1"/>
-    </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B590" s="1"/>
-    </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B592" s="1"/>
-    </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B594" s="1"/>
-    </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B596" s="1"/>
-    </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B598" s="1"/>
-    </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B602" s="1"/>
-    </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B604" s="1"/>
-    </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B606" s="1"/>
-    </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B608" s="1"/>
-    </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B610" s="1"/>
-    </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B612" s="1"/>
-    </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B614" s="1"/>
-    </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B616" s="1"/>
-    </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B618" s="1"/>
-    </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B622" s="1"/>
-    </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B624" s="1"/>
-    </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B626" s="1"/>
-    </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B628" s="1"/>
-    </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B630" s="1"/>
-    </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B632" s="1"/>
-    </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B634" s="1"/>
-    </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B636" s="1"/>
-    </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B638" s="1"/>
-    </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B640" s="1"/>
-    </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B642" s="1"/>
-    </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B644" s="1"/>
-    </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B646" s="1"/>
-    </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B648" s="1"/>
-    </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B650" s="1"/>
-    </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B652" s="1"/>
-    </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B654" s="1"/>
-    </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B656" s="1"/>
-    </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B658" s="1"/>
-    </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B660" s="1"/>
-    </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B662" s="1"/>
-    </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B664" s="1"/>
-    </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B666" s="1"/>
-    </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B668" s="1"/>
-    </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B670" s="1"/>
-    </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B672" s="1"/>
-    </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B674" s="1"/>
-    </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B676" s="1"/>
-    </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B678" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10992,10 +10422,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E706"/>
+  <dimension ref="A1:E704"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C706" sqref="A1:E706"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D550" sqref="D550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11991,7 +11422,9 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
@@ -12002,7 +11435,9 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
@@ -12013,7 +11448,9 @@
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
@@ -12035,7 +11472,9 @@
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
@@ -12134,7 +11573,9 @@
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
@@ -12431,7 +11872,9 @@
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
@@ -12442,7 +11885,9 @@
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
@@ -12453,7 +11898,9 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
@@ -12464,7 +11911,9 @@
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
@@ -12475,7 +11924,9 @@
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
@@ -12486,7 +11937,9 @@
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
@@ -12497,7 +11950,9 @@
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
@@ -12508,7 +11963,9 @@
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
@@ -12519,7 +11976,9 @@
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
@@ -12530,7 +11989,9 @@
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
@@ -12552,7 +12013,9 @@
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
@@ -12574,7 +12037,9 @@
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
@@ -12585,7 +12050,9 @@
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
@@ -12618,7 +12085,9 @@
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
@@ -12640,7 +12109,9 @@
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
@@ -12651,7 +12122,9 @@
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
@@ -12673,7 +12146,9 @@
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
@@ -12684,7 +12159,9 @@
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
@@ -12706,7 +12183,9 @@
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
@@ -12728,7 +12207,9 @@
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
@@ -12739,7 +12220,9 @@
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
@@ -12816,7 +12299,9 @@
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
@@ -12838,7 +12323,9 @@
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
@@ -12871,7 +12358,9 @@
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
@@ -12893,7 +12382,9 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
@@ -12915,7 +12406,9 @@
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
@@ -12959,7 +12452,9 @@
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
@@ -13036,7 +12531,9 @@
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
@@ -13047,7 +12544,9 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
@@ -13058,7 +12557,9 @@
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
@@ -13080,7 +12581,9 @@
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
-      <c r="E186" s="2"/>
+      <c r="E186" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
@@ -13102,7 +12605,9 @@
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="2"/>
+      <c r="E188" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
@@ -13113,7 +12618,9 @@
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
@@ -13124,7 +12631,9 @@
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
@@ -13135,7 +12644,9 @@
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
@@ -13157,7 +12668,9 @@
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="7"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
@@ -13179,7 +12692,9 @@
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
@@ -13190,7 +12705,9 @@
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
@@ -13267,7 +12784,9 @@
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="7"/>
-      <c r="E203" s="2"/>
+      <c r="E203" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
@@ -13498,7 +13017,9 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
-      <c r="E224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
@@ -13553,7 +13074,9 @@
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="7"/>
-      <c r="E229" s="2"/>
+      <c r="E229" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
@@ -13641,7 +13164,9 @@
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="7"/>
-      <c r="E237" s="2"/>
+      <c r="E237" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
@@ -13663,7 +13188,9 @@
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="7"/>
-      <c r="E239" s="2"/>
+      <c r="E239" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
@@ -13806,7 +13333,9 @@
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
-      <c r="E252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
@@ -13883,7 +13412,9 @@
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
-      <c r="E259" s="2"/>
+      <c r="E259" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
@@ -13905,7 +13436,9 @@
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
-      <c r="E261" s="2"/>
+      <c r="E261" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
@@ -13916,7 +13449,9 @@
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
-      <c r="E262" s="2"/>
+      <c r="E262" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
@@ -13993,7 +13528,9 @@
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
-      <c r="E269" s="2"/>
+      <c r="E269" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
@@ -14015,7 +13552,9 @@
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
-      <c r="E271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
@@ -14158,7 +13697,9 @@
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
-      <c r="E284" s="2"/>
+      <c r="E284" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
@@ -14169,7 +13710,9 @@
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="7"/>
-      <c r="E285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
@@ -14202,7 +13745,9 @@
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
-      <c r="E288" s="2"/>
+      <c r="E288" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
@@ -14257,7 +13802,9 @@
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="7"/>
-      <c r="E293" s="2"/>
+      <c r="E293" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
@@ -14268,7 +13815,9 @@
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
-      <c r="E294" s="2"/>
+      <c r="E294" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
@@ -14290,7 +13839,9 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="7"/>
-      <c r="E296" s="2"/>
+      <c r="E296" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
@@ -14301,7 +13852,9 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
-      <c r="E297" s="2"/>
+      <c r="E297" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
@@ -14345,7 +13898,9 @@
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
-      <c r="E301" s="2"/>
+      <c r="E301" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
@@ -14389,7 +13944,9 @@
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
@@ -14433,7 +13990,9 @@
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="7"/>
-      <c r="E309" s="2"/>
+      <c r="E309" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
@@ -14488,7 +14047,9 @@
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
-      <c r="E314" s="2"/>
+      <c r="E314" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
@@ -14609,7 +14170,9 @@
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="7"/>
-      <c r="E325" s="2"/>
+      <c r="E325" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326">
@@ -14653,36 +14216,42 @@
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="7"/>
-      <c r="E329" s="2"/>
+      <c r="E329" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B330" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="7"/>
-      <c r="E330" s="2"/>
+      <c r="E330" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B331" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="7"/>
-      <c r="E331" s="2"/>
+      <c r="E331" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B332" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="7"/>
@@ -14690,10 +14259,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B333" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="7"/>
@@ -14701,10 +14270,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B334" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="7"/>
@@ -14712,10 +14281,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B335" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="7"/>
@@ -14723,10 +14292,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B336" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="7"/>
@@ -14734,10 +14303,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B337" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="7"/>
@@ -14745,10 +14314,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B338" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="7"/>
@@ -14756,10 +14325,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B339" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="7"/>
@@ -14767,32 +14336,34 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B340" t="s">
-        <v>680</v>
-      </c>
-      <c r="C340" s="6"/>
-      <c r="D340" s="7"/>
+        <v>681</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" s="4"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B341" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="4"/>
-      <c r="E341" s="2"/>
+      <c r="E341" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B342" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="4"/>
@@ -14800,10 +14371,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B343" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="4"/>
@@ -14811,10 +14382,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B344" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="4"/>
@@ -14822,10 +14393,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B345" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="4"/>
@@ -14833,10 +14404,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B346" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="4"/>
@@ -14844,10 +14415,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B347" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="4"/>
@@ -14855,32 +14426,36 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B348" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="2"/>
+      <c r="E348" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B349" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="2"/>
+      <c r="E349" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B350" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="4"/>
@@ -14888,10 +14463,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B351" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="4"/>
@@ -14899,10 +14474,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B352" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="4"/>
@@ -14910,10 +14485,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B353" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="4"/>
@@ -14921,10 +14496,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B354" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="4"/>
@@ -14932,10 +14507,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B355" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="4"/>
@@ -14943,10 +14518,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B356" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="4"/>
@@ -14954,21 +14529,23 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B357" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="4"/>
-      <c r="E357" s="2"/>
+      <c r="E357" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B358" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="4"/>
@@ -14976,10 +14553,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B359" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="4"/>
@@ -14987,10 +14564,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B360" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="4"/>
@@ -14998,21 +14575,23 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B361" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="2"/>
+      <c r="E361" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B362" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="4"/>
@@ -15020,10 +14599,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B363" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="4"/>
@@ -15031,10 +14610,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B364" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="4"/>
@@ -15042,21 +14621,23 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B365" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="2"/>
+      <c r="E365" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B366" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="4"/>
@@ -15064,21 +14645,23 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B367" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="2"/>
+      <c r="E367" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B368" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="4"/>
@@ -15086,10 +14669,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B369" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="4"/>
@@ -15097,10 +14680,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B370" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="4"/>
@@ -15108,10 +14691,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B371" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="4"/>
@@ -15119,10 +14702,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B372" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="4"/>
@@ -15130,10 +14713,10 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B373" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="4"/>
@@ -15141,21 +14724,23 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B374" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="2"/>
+      <c r="E374" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B375" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="4"/>
@@ -15163,10 +14748,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B376" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="4"/>
@@ -15174,10 +14759,10 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B377" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="4"/>
@@ -15185,10 +14770,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B378" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="4"/>
@@ -15196,21 +14781,23 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B379" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="2"/>
+      <c r="E379" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B380" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="4"/>
@@ -15218,10 +14805,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B381" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="4"/>
@@ -15229,10 +14816,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B382" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="4"/>
@@ -15240,21 +14827,23 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B383" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="2"/>
+      <c r="E383" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B384" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="4"/>
@@ -15262,21 +14851,23 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B385" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="2"/>
+      <c r="E385" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B386" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="4"/>
@@ -15284,10 +14875,10 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B387" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="4"/>
@@ -15295,21 +14886,23 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B388" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="4"/>
-      <c r="E388" s="2"/>
+      <c r="E388" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B389" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="4"/>
@@ -15317,10 +14910,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="B390" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="4"/>
@@ -15328,10 +14921,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B391" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="4"/>
@@ -15339,10 +14932,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B392" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="4"/>
@@ -15350,10 +14943,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B393" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="4"/>
@@ -15361,10 +14954,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B394" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="4"/>
@@ -15372,21 +14965,23 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B395" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="4"/>
-      <c r="E395" s="2"/>
+      <c r="E395" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B396" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="4"/>
@@ -15394,10 +14989,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B397" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="4"/>
@@ -15405,10 +15000,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B398" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="4"/>
@@ -15416,10 +15011,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B399" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="4"/>
@@ -15427,10 +15022,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B400" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="4"/>
@@ -15438,10 +15033,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B401" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="4"/>
@@ -15449,10 +15044,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B402" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="4"/>
@@ -15460,10 +15055,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B403" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="4"/>
@@ -15471,10 +15066,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B404" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="4"/>
@@ -15482,10 +15077,10 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B405" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="4"/>
@@ -15493,10 +15088,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B406" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="4"/>
@@ -15504,10 +15099,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B407" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="4"/>
@@ -15515,10 +15110,10 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B408" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="4"/>
@@ -15526,10 +15121,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B409" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="4"/>
@@ -15537,10 +15132,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B410" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="4"/>
@@ -15548,10 +15143,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B411" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="4"/>
@@ -15559,10 +15154,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B412" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="4"/>
@@ -15570,10 +15165,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B413" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="4"/>
@@ -15581,10 +15176,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B414" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="4"/>
@@ -15592,10 +15187,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B415" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="4"/>
@@ -15603,10 +15198,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B416" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="4"/>
@@ -15614,10 +15209,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B417" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="4"/>
@@ -15625,10 +15220,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B418" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="4"/>
@@ -15636,10 +15231,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B419" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="4"/>
@@ -15647,10 +15242,10 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B420" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="4"/>
@@ -15658,10 +15253,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B421" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="4"/>
@@ -15669,10 +15264,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B422" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="4"/>
@@ -15680,10 +15275,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B423" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="4"/>
@@ -15691,10 +15286,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B424" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="4"/>
@@ -15702,10 +15297,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B425" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="4"/>
@@ -15713,10 +15308,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B426" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="4"/>
@@ -15724,10 +15319,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B427" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="4"/>
@@ -15735,10 +15330,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B428" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="4"/>
@@ -15746,10 +15341,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B429" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="4"/>
@@ -15757,10 +15352,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B430" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="4"/>
@@ -15768,10 +15363,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B431" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="4"/>
@@ -15779,10 +15374,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B432" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="4"/>
@@ -15790,10 +15385,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B433" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="4"/>
@@ -15801,10 +15396,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B434" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="4"/>
@@ -15812,10 +15407,10 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B435" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="4"/>
@@ -15823,10 +15418,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B436" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="4"/>
@@ -15834,10 +15429,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B437" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="4"/>
@@ -15845,10 +15440,10 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B438" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="4"/>
@@ -15856,10 +15451,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B439" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="4"/>
@@ -15867,10 +15462,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B440" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="4"/>
@@ -15878,10 +15473,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B441" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="4"/>
@@ -15889,10 +15484,10 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B442" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="4"/>
@@ -15900,10 +15495,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B443" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="4"/>
@@ -15911,36 +15506,36 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B444" t="s">
-        <v>784</v>
-      </c>
-      <c r="C444" s="2"/>
-      <c r="D444" s="4"/>
+        <v>785</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D444" s="4">
+        <v>43910</v>
+      </c>
       <c r="E444" s="2"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B445" t="s">
-        <v>785</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D445" s="4">
-        <v>43910</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="C445" s="2"/>
+      <c r="D445" s="4"/>
       <c r="E445" s="2"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B446" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="4"/>
@@ -15948,10 +15543,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B447" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="4"/>
@@ -15959,10 +15554,10 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B448" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="4"/>
@@ -15970,10 +15565,10 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B449" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="4"/>
@@ -15981,10 +15576,10 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B450" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="4"/>
@@ -15992,10 +15587,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B451" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="4"/>
@@ -16003,10 +15598,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B452" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="4"/>
@@ -16014,10 +15609,10 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B453" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="4"/>
@@ -16025,10 +15620,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B454" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="4"/>
@@ -16036,10 +15631,10 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B455" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="4"/>
@@ -16047,10 +15642,10 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B456" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="4"/>
@@ -16058,10 +15653,10 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B457" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="4"/>
@@ -16069,10 +15664,10 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B458" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="4"/>
@@ -16080,10 +15675,10 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B459" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="4"/>
@@ -16091,10 +15686,10 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B460" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="4"/>
@@ -16102,10 +15697,10 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B461" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="4"/>
@@ -16113,10 +15708,10 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B462" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="4"/>
@@ -16124,10 +15719,10 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B463" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="4"/>
@@ -16135,10 +15730,10 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B464" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="4"/>
@@ -16146,10 +15741,10 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B465" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="4"/>
@@ -16157,10 +15752,10 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B466" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="4"/>
@@ -16168,10 +15763,10 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B467" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="4"/>
@@ -16179,10 +15774,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B468" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="4"/>
@@ -16190,10 +15785,10 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B469" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="4"/>
@@ -16201,10 +15796,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B470" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="4"/>
@@ -16212,10 +15807,10 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B471" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="4"/>
@@ -16223,10 +15818,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B472" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="4"/>
@@ -16234,10 +15829,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B473" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="4"/>
@@ -16245,10 +15840,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B474" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="4"/>
@@ -16256,10 +15851,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B475" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="4"/>
@@ -16267,10 +15862,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="B476" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="4"/>
@@ -16278,10 +15873,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B477" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="4"/>
@@ -16289,10 +15884,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B478" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="4"/>
@@ -16300,10 +15895,10 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B479" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="4"/>
@@ -16311,10 +15906,10 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B480" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="4"/>
@@ -16322,10 +15917,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B481" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="4"/>
@@ -16333,10 +15928,10 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B482" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="4"/>
@@ -16344,10 +15939,10 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B483" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="4"/>
@@ -16355,10 +15950,10 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B484" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="4"/>
@@ -16366,10 +15961,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B485" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="4"/>
@@ -16377,10 +15972,10 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B486" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="4"/>
@@ -16388,10 +15983,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B487" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="4"/>
@@ -16399,10 +15994,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B488" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="4"/>
@@ -16410,10 +16005,10 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B489" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="4"/>
@@ -16421,10 +16016,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B490" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="4"/>
@@ -16432,10 +16027,10 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B491" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="4"/>
@@ -16443,10 +16038,10 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B492" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="4"/>
@@ -16454,10 +16049,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B493" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="4"/>
@@ -16465,10 +16060,10 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B494" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="4"/>
@@ -16476,10 +16071,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B495" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="4"/>
@@ -16487,10 +16082,10 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B496" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="4"/>
@@ -16498,10 +16093,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B497" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="4"/>
@@ -16509,10 +16104,10 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B498" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="4"/>
@@ -16520,10 +16115,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B499" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="4"/>
@@ -16531,10 +16126,10 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B500" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="4"/>
@@ -16542,10 +16137,10 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B501" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="4"/>
@@ -16553,10 +16148,10 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B502" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="4"/>
@@ -16564,10 +16159,10 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B503" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="4"/>
@@ -16575,10 +16170,10 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B504" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="4"/>
@@ -16586,10 +16181,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="B505" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="4"/>
@@ -16597,10 +16192,10 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="B506" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="4"/>
@@ -16608,10 +16203,10 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B507" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="4"/>
@@ -16619,10 +16214,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B508" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="4"/>
@@ -16630,10 +16225,10 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B509" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="4"/>
@@ -16641,10 +16236,10 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B510" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="4"/>
@@ -16652,10 +16247,10 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B511" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="4"/>
@@ -16663,10 +16258,10 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B512" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="4"/>
@@ -16674,10 +16269,10 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B513" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="4"/>
@@ -16685,10 +16280,10 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B514" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="4"/>
@@ -16696,10 +16291,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B515" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="4"/>
@@ -16707,10 +16302,10 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A516">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B516" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="4"/>
@@ -16718,10 +16313,10 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A517">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B517" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="4"/>
@@ -16729,10 +16324,10 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B518" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="4"/>
@@ -16740,10 +16335,10 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B519" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="4"/>
@@ -16751,10 +16346,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B520" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="4"/>
@@ -16762,10 +16357,10 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B521" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="4"/>
@@ -16773,10 +16368,10 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B522" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="4"/>
@@ -16784,10 +16379,10 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B523" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="4"/>
@@ -16795,10 +16390,10 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A524">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B524" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="4"/>
@@ -16806,10 +16401,10 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A525">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B525" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="4"/>
@@ -16817,10 +16412,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A526">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B526" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="4"/>
@@ -16828,10 +16423,10 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A527">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B527" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="4"/>
@@ -16839,10 +16434,10 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A528">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B528" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="4"/>
@@ -16850,10 +16445,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A529">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B529" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="4"/>
@@ -16861,10 +16456,10 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A530">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B530" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="4"/>
@@ -16872,10 +16467,10 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A531">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B531" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="4"/>
@@ -16883,10 +16478,10 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A532">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B532" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="4"/>
@@ -16894,10 +16489,10 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A533">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B533" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="4"/>
@@ -16905,10 +16500,10 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A534">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B534" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="4"/>
@@ -16916,10 +16511,10 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A535">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B535" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="4"/>
@@ -16927,98 +16522,114 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A536">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B536" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="4"/>
-      <c r="E536" s="2"/>
+      <c r="E536" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A537">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B537" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="4"/>
-      <c r="E537" s="2"/>
+      <c r="E537" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A538">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B538" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="4"/>
-      <c r="E538" s="2"/>
+      <c r="E538" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A539">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B539" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="4"/>
-      <c r="E539" s="2"/>
+      <c r="E539" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A540">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B540" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="4"/>
-      <c r="E540" s="2"/>
+      <c r="E540" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A541">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B541" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="4"/>
-      <c r="E541" s="2"/>
+      <c r="E541" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A542">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B542" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="4"/>
-      <c r="E542" s="2"/>
+      <c r="E542" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A543">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B543" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="4"/>
-      <c r="E543" s="2"/>
+      <c r="E543" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A544">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B544" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="4"/>
@@ -17026,10 +16637,10 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A545">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B545" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="4"/>
@@ -17037,10 +16648,10 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A546">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B546" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="4"/>
@@ -17048,10 +16659,10 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A547">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B547" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="4"/>
@@ -17059,10 +16670,10 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A548">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B548" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="4"/>
@@ -17070,10 +16681,10 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A549">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B549" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="4"/>
@@ -17081,21 +16692,23 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A550">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="B550" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="4"/>
-      <c r="E550" s="2"/>
+      <c r="E550" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A551">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B551" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="4"/>
@@ -17103,10 +16716,10 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A552">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B552" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="4"/>
@@ -17114,10 +16727,10 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A553">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B553" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="4"/>
@@ -17125,10 +16738,10 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B554" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="4"/>
@@ -17136,10 +16749,10 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="B555" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="4"/>
@@ -17147,43 +16760,49 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B556" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="4"/>
-      <c r="E556" s="2"/>
+      <c r="E556" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B557" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="4"/>
-      <c r="E557" s="2"/>
+      <c r="E557" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B558" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="4"/>
-      <c r="E558" s="2"/>
+      <c r="E558" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B559" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="4"/>
@@ -17191,10 +16810,10 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B560" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="4"/>
@@ -17202,10 +16821,10 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A561">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B561" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="4"/>
@@ -17213,10 +16832,10 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A562">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B562" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="4"/>
@@ -17224,10 +16843,10 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A563">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B563" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="4"/>
@@ -17235,10 +16854,10 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A564">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B564" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="4"/>
@@ -17246,10 +16865,10 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A565">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B565" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="4"/>
@@ -17257,10 +16876,10 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A566">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B566" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="4"/>
@@ -17268,10 +16887,10 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A567">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B567" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="4"/>
@@ -17279,10 +16898,10 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A568">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B568" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="4"/>
@@ -17290,21 +16909,23 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A569">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B569" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="4"/>
-      <c r="E569" s="2"/>
+      <c r="E569" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A570">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="B570" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="4"/>
@@ -17312,10 +16933,10 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A571">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B571" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="4"/>
@@ -17323,10 +16944,10 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A572">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B572" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="4"/>
@@ -17334,10 +16955,10 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A573">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="B573" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="4"/>
@@ -17345,10 +16966,10 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A574">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B574" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="4"/>
@@ -17356,10 +16977,10 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A575">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B575" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="4"/>
@@ -17367,10 +16988,10 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A576">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B576" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="4"/>
@@ -17378,21 +16999,23 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A577">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B577" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="4"/>
-      <c r="E577" s="2"/>
+      <c r="E577" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A578">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="B578" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="4"/>
@@ -17400,10 +17023,10 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A579">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B579" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="4"/>
@@ -17411,10 +17034,10 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A580">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B580" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="4"/>
@@ -17422,10 +17045,10 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A581">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B581" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="4"/>
@@ -17433,10 +17056,10 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A582">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B582" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="4"/>
@@ -17444,10 +17067,10 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A583">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B583" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="4"/>
@@ -17455,10 +17078,10 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A584">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B584" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="4"/>
@@ -17466,10 +17089,10 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A585">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B585" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="4"/>
@@ -17477,32 +17100,36 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A586">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B586" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="4"/>
-      <c r="E586" s="2"/>
+      <c r="E586" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A587">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B587" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="4"/>
-      <c r="E587" s="2"/>
+      <c r="E587" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A588">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B588" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="4"/>
@@ -17510,10 +17137,10 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A589">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B589" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="4"/>
@@ -17521,10 +17148,10 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A590">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B590" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="4"/>
@@ -17532,10 +17159,10 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A591">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B591" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="4"/>
@@ -17543,10 +17170,10 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A592">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B592" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="4"/>
@@ -17554,10 +17181,10 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A593">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B593" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="4"/>
@@ -17565,32 +17192,36 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A594">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B594" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="4"/>
-      <c r="E594" s="2"/>
+      <c r="E594" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A595">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B595" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="4"/>
-      <c r="E595" s="2"/>
+      <c r="E595" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A596">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B596" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="4"/>
@@ -17598,10 +17229,10 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A597">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B597" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="4"/>
@@ -17609,10 +17240,10 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A598">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="B598" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="4"/>
@@ -17620,10 +17251,10 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A599">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B599" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="4"/>
@@ -17631,32 +17262,36 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A600">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B600" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="4"/>
-      <c r="E600" s="2"/>
+      <c r="E600" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A601">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B601" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="4"/>
-      <c r="E601" s="2"/>
+      <c r="E601" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A602">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B602" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="4"/>
@@ -17664,10 +17299,10 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A603">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B603" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="4"/>
@@ -17675,10 +17310,10 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A604">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B604" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="4"/>
@@ -17686,10 +17321,10 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A605">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B605" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="4"/>
@@ -17697,10 +17332,10 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A606">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B606" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="4"/>
@@ -17708,10 +17343,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A607">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B607" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="4"/>
@@ -17719,32 +17354,36 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A608">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B608" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="4"/>
-      <c r="E608" s="2"/>
+      <c r="E608" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A609">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B609" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="4"/>
-      <c r="E609" s="2"/>
+      <c r="E609" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A610">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B610" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="4"/>
@@ -17752,10 +17391,10 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A611">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B611" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="4"/>
@@ -17763,10 +17402,10 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A612">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B612" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="4"/>
@@ -17774,10 +17413,10 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A613">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B613" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="4"/>
@@ -17785,10 +17424,10 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A614">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B614" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="4"/>
@@ -17796,10 +17435,10 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A615">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B615" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="4"/>
@@ -17807,10 +17446,10 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A616">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B616" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="4"/>
@@ -17818,32 +17457,36 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A617">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B617" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="4"/>
-      <c r="E617" s="2"/>
+      <c r="E617" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A618">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B618" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="4"/>
-      <c r="E618" s="2"/>
+      <c r="E618" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A619">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B619" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="4"/>
@@ -17851,10 +17494,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A620">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B620" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="4"/>
@@ -17862,10 +17505,10 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A621">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B621" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="4"/>
@@ -17873,10 +17516,10 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A622">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B622" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="4"/>
@@ -17884,10 +17527,10 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A623">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B623" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="4"/>
@@ -17895,10 +17538,10 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A624">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B624" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="4"/>
@@ -17906,32 +17549,36 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A625">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B625" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="4"/>
-      <c r="E625" s="2"/>
+      <c r="E625" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A626">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B626" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="4"/>
-      <c r="E626" s="2"/>
+      <c r="E626" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A627">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B627" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="4"/>
@@ -17939,10 +17586,10 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A628">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B628" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="4"/>
@@ -17950,21 +17597,23 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A629">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B629" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="4"/>
-      <c r="E629" s="2"/>
+      <c r="E629" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A630">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B630" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="4"/>
@@ -17972,10 +17621,10 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A631">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B631" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="4"/>
@@ -17983,10 +17632,10 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A632">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B632" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="4"/>
@@ -17994,32 +17643,36 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A633">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B633" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="4"/>
-      <c r="E633" s="2"/>
+      <c r="E633" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A634">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B634" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="4"/>
-      <c r="E634" s="2"/>
+      <c r="E634" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A635">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B635" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="4"/>
@@ -18027,10 +17680,10 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A636">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B636" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="4"/>
@@ -18038,10 +17691,10 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A637">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B637" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="4"/>
@@ -18049,10 +17702,10 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A638">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B638" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="4"/>
@@ -18060,10 +17713,10 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A639">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="B639" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="4"/>
@@ -18071,43 +17724,49 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A640">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B640" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="4"/>
-      <c r="E640" s="2"/>
+      <c r="E640" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A641">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="B641" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="4"/>
-      <c r="E641" s="2"/>
+      <c r="E641" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A642">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B642" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="4"/>
-      <c r="E642" s="2"/>
+      <c r="E642" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A643">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="B643" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="4"/>
@@ -18115,10 +17774,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A644">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B644" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="4"/>
@@ -18126,10 +17785,10 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A645">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B645" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="4"/>
@@ -18137,21 +17796,23 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A646">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B646" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="4"/>
-      <c r="E646" s="2"/>
+      <c r="E646" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A647">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B647" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="4"/>
@@ -18159,10 +17820,10 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A648">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B648" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="4"/>
@@ -18170,10 +17831,10 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A649">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B649" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="4"/>
@@ -18181,32 +17842,36 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A650">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B650" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="4"/>
-      <c r="E650" s="2"/>
+      <c r="E650" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A651">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B651" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="4"/>
-      <c r="E651" s="2"/>
+      <c r="E651" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A652">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B652" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="4"/>
@@ -18214,10 +17879,10 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A653">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B653" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="4"/>
@@ -18225,10 +17890,10 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A654">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="B654" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="4"/>
@@ -18236,10 +17901,10 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A655">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B655" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="4"/>
@@ -18247,10 +17912,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A656">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B656" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="4"/>
@@ -18258,10 +17923,10 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A657">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B657" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="4"/>
@@ -18269,10 +17934,10 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A658">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B658" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="4"/>
@@ -18280,10 +17945,10 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A659">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B659" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="4"/>
@@ -18291,10 +17956,10 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A660">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="B660" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="4"/>
@@ -18302,10 +17967,10 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A661">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="B661" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="4"/>
@@ -18313,10 +17978,10 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A662">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="B662" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="4"/>
@@ -18324,10 +17989,10 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A663">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="B663" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="4"/>
@@ -18335,10 +18000,10 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A664">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="B664" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="4"/>
@@ -18346,10 +18011,10 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A665">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="B665" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="4"/>
@@ -18357,10 +18022,10 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A666">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="B666" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="4"/>
@@ -18368,10 +18033,10 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A667">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B667" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="4"/>
@@ -18379,10 +18044,10 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A668">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="B668" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="4"/>
@@ -18390,10 +18055,10 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A669">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B669" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="4"/>
@@ -18401,10 +18066,10 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A670">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="B670" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="4"/>
@@ -18412,10 +18077,10 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A671">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B671" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="4"/>
@@ -18423,10 +18088,10 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A672">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="B672" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="4"/>
@@ -18434,10 +18099,10 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A673">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B673" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="4"/>
@@ -18445,10 +18110,10 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A674">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B674" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="4"/>
@@ -18456,10 +18121,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A675">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B675" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="4"/>
@@ -18467,10 +18132,10 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A676">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B676" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="4"/>
@@ -18478,10 +18143,10 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A677">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B677" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="4"/>
@@ -18489,10 +18154,10 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A678">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B678" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="4"/>
@@ -18500,10 +18165,10 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A679">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B679" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="4"/>
@@ -18511,10 +18176,10 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A680">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="B680" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="4"/>
@@ -18522,10 +18187,10 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A681">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="B681" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="4"/>
@@ -18533,10 +18198,10 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A682">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="B682" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="4"/>
@@ -18544,10 +18209,10 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A683">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B683" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="4"/>
@@ -18555,10 +18220,10 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A684">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="B684" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="4"/>
@@ -18566,10 +18231,10 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A685">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B685" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="4"/>
@@ -18577,10 +18242,10 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A686">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="B686" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="4"/>
@@ -18588,10 +18253,10 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A687">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B687" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="4"/>
@@ -18599,10 +18264,10 @@
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A688">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="B688" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="4"/>
@@ -18610,10 +18275,10 @@
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A689">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="B689" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="4"/>
@@ -18621,10 +18286,10 @@
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A690">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B690" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="4"/>
@@ -18632,10 +18297,10 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A691">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="B691" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="4"/>
@@ -18643,10 +18308,10 @@
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A692">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="B692" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="4"/>
@@ -18654,10 +18319,10 @@
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A693">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B693" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="4"/>
@@ -18665,10 +18330,10 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A694">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="B694" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="4"/>
@@ -18676,10 +18341,10 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A695">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="B695" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="4"/>
@@ -18687,10 +18352,10 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A696">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B696" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="4"/>
@@ -18698,10 +18363,10 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A697">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B697" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="4"/>
@@ -18709,10 +18374,10 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A698">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="B698" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="4"/>
@@ -18720,10 +18385,10 @@
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A699">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="B699" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="4"/>
@@ -18731,10 +18396,10 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A700">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="B700" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="4"/>
@@ -18742,10 +18407,10 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A701">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B701" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="4"/>
@@ -18753,10 +18418,10 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A702">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="B702" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="4"/>
@@ -18764,10 +18429,10 @@
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A703">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="B703" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="4"/>
@@ -18775,48 +18440,28 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A704">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B704" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="4"/>
       <c r="E704" s="2"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A705">
-        <v>1381</v>
-      </c>
-      <c r="B705" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C705" s="2"/>
-      <c r="D705" s="4"/>
-      <c r="E705" s="2"/>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A706">
-        <v>1382</v>
-      </c>
-      <c r="B706" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C706" s="2"/>
-      <c r="D706" s="4"/>
-      <c r="E706" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C289" sqref="A1:E289"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19154,7 +18799,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>145</v>
       </c>
@@ -19164,7 +18809,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>149</v>
       </c>
@@ -19174,7 +18819,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>154</v>
       </c>
@@ -19184,7 +18829,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>158</v>
       </c>
@@ -19193,8 +18838,11 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>164</v>
       </c>
@@ -19204,7 +18852,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>174</v>
       </c>
@@ -19214,7 +18862,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>185</v>
       </c>
@@ -19224,7 +18872,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>188</v>
       </c>
@@ -19234,7 +18882,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>212</v>
       </c>
@@ -19244,7 +18892,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>214</v>
       </c>
@@ -19254,7 +18902,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>218</v>
       </c>
@@ -19264,7 +18912,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>224</v>
       </c>
@@ -19274,7 +18922,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>233</v>
       </c>
@@ -19284,7 +18932,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>239</v>
       </c>
@@ -19294,7 +18942,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>248</v>
       </c>
@@ -19304,7 +18952,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>262</v>
       </c>
@@ -19313,8 +18961,11 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>265</v>
       </c>
@@ -19323,8 +18974,11 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>269</v>
       </c>
@@ -19333,8 +18987,11 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>272</v>
       </c>
@@ -19343,8 +19000,11 @@
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>273</v>
       </c>
@@ -19354,7 +19014,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>282</v>
       </c>
@@ -19364,7 +19024,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>291</v>
       </c>
@@ -19373,8 +19033,11 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>295</v>
       </c>
@@ -19384,7 +19047,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>296</v>
       </c>
@@ -19393,8 +19056,11 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>297</v>
       </c>
@@ -19404,7 +19070,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>301</v>
       </c>
@@ -19414,7 +19080,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>302</v>
       </c>
@@ -19423,8 +19089,11 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>305</v>
       </c>
@@ -19433,8 +19102,11 @@
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>308</v>
       </c>
@@ -19443,8 +19115,11 @@
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>312</v>
       </c>
@@ -19454,7 +19129,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>315</v>
       </c>
@@ -19464,7 +19139,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>316</v>
       </c>
@@ -19474,7 +19149,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>317</v>
       </c>
@@ -19483,8 +19158,11 @@
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>321</v>
       </c>
@@ -19494,7 +19172,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>327</v>
       </c>
@@ -19504,7 +19182,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>329</v>
       </c>
@@ -19514,7 +19192,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>330</v>
       </c>
@@ -19524,7 +19202,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>335</v>
       </c>
@@ -19534,7 +19212,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>336</v>
       </c>
@@ -19544,7 +19222,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>340</v>
       </c>
@@ -19553,8 +19231,11 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>352</v>
       </c>
@@ -19564,7 +19245,7 @@
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>354</v>
       </c>
@@ -19574,7 +19255,7 @@
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>358</v>
       </c>
@@ -19583,8 +19264,11 @@
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>363</v>
       </c>
@@ -19594,7 +19278,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>381</v>
       </c>
@@ -19604,7 +19288,7 @@
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>391</v>
       </c>
@@ -19614,7 +19298,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>403</v>
       </c>
@@ -19624,7 +19308,7 @@
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>407</v>
       </c>
@@ -19634,7 +19318,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>410</v>
       </c>
@@ -19644,7 +19328,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>411</v>
       </c>
@@ -19653,8 +19337,11 @@
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E82" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>420</v>
       </c>
@@ -19664,7 +19351,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>425</v>
       </c>
@@ -19673,8 +19360,11 @@
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>428</v>
       </c>
@@ -19683,8 +19373,11 @@
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>431</v>
       </c>
@@ -19693,8 +19386,11 @@
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>432</v>
       </c>
@@ -19704,7 +19400,7 @@
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>440</v>
       </c>
@@ -19714,7 +19410,7 @@
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>446</v>
       </c>
@@ -19724,7 +19420,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>458</v>
       </c>
@@ -19734,7 +19430,7 @@
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>460</v>
       </c>
@@ -19744,7 +19440,7 @@
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>465</v>
       </c>
@@ -19753,8 +19449,11 @@
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>466</v>
       </c>
@@ -19764,7 +19463,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>471</v>
       </c>
@@ -19773,8 +19472,11 @@
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>472</v>
       </c>
@@ -19784,7 +19486,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>479</v>
       </c>
@@ -19794,7 +19496,7 @@
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>480</v>
       </c>
@@ -19804,7 +19506,7 @@
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>483</v>
       </c>
@@ -19814,7 +19516,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>488</v>
       </c>
@@ -19824,7 +19526,7 @@
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>489</v>
       </c>
@@ -19833,8 +19535,11 @@
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>493</v>
       </c>
@@ -19844,7 +19549,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>499</v>
       </c>
@@ -19853,8 +19558,11 @@
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>502</v>
       </c>
@@ -19864,7 +19572,7 @@
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>514</v>
       </c>
@@ -19874,7 +19582,7 @@
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>517</v>
       </c>
@@ -19884,7 +19592,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>527</v>
       </c>
@@ -19893,8 +19601,11 @@
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>546</v>
       </c>
@@ -19904,7 +19615,7 @@
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>552</v>
       </c>
@@ -19914,7 +19625,7 @@
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>564</v>
       </c>
@@ -19924,7 +19635,7 @@
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>568</v>
       </c>
@@ -19933,8 +19644,11 @@
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E110" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>569</v>
       </c>
@@ -19944,7 +19658,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>571</v>
       </c>
@@ -19954,7 +19668,7 @@
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>579</v>
       </c>
@@ -19964,7 +19678,7 @@
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>587</v>
       </c>
@@ -19974,7 +19688,7 @@
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>588</v>
       </c>
@@ -19983,8 +19697,11 @@
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E115" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>591</v>
       </c>
@@ -19994,7 +19711,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>600</v>
       </c>
@@ -20004,7 +19721,7 @@
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>601</v>
       </c>
@@ -20014,7 +19731,7 @@
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>615</v>
       </c>
@@ -20024,7 +19741,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>618</v>
       </c>
@@ -20034,7 +19751,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>629</v>
       </c>
@@ -20044,7 +19761,7 @@
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>630</v>
       </c>
@@ -20054,7 +19771,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>631</v>
       </c>
@@ -20063,8 +19780,11 @@
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E123" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>632</v>
       </c>
@@ -20074,7 +19794,7 @@
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>639</v>
       </c>
@@ -20084,7 +19804,7 @@
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>642</v>
       </c>
@@ -20093,8 +19813,11 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E126" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>644</v>
       </c>
@@ -20103,8 +19826,11 @@
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E127" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>656</v>
       </c>
@@ -20113,8 +19839,11 @@
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E128" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>660</v>
       </c>
@@ -20123,8 +19852,11 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E129" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>664</v>
       </c>
@@ -20134,7 +19866,7 @@
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>668</v>
       </c>
@@ -20144,7 +19876,7 @@
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>675</v>
       </c>
@@ -20154,7 +19886,7 @@
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>679</v>
       </c>
@@ -20164,7 +19896,7 @@
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>683</v>
       </c>
@@ -20173,8 +19905,11 @@
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E134" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>685</v>
       </c>
@@ -20184,7 +19919,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>689</v>
       </c>
@@ -20194,7 +19929,7 @@
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>691</v>
       </c>
@@ -20204,7 +19939,7 @@
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>699</v>
       </c>
@@ -20214,7 +19949,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>710</v>
       </c>
@@ -20224,7 +19959,7 @@
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>711</v>
       </c>
@@ -20233,8 +19968,11 @@
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E140" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>715</v>
       </c>
@@ -20244,7 +19982,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>719</v>
       </c>
@@ -20254,7 +19992,7 @@
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>726</v>
       </c>
@@ -20264,7 +20002,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>727</v>
       </c>
@@ -20273,8 +20011,11 @@
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E144" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>730</v>
       </c>
@@ -20284,7 +20025,7 @@
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>732</v>
       </c>
@@ -20294,7 +20035,7 @@
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>736</v>
       </c>
@@ -20304,7 +20045,7 @@
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>741</v>
       </c>
@@ -20314,7 +20055,7 @@
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>745</v>
       </c>
@@ -20324,7 +20065,7 @@
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>749</v>
       </c>
@@ -20334,7 +20075,7 @@
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>753</v>
       </c>
@@ -20344,7 +20085,7 @@
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>757</v>
       </c>
@@ -20354,7 +20095,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>759</v>
       </c>
@@ -20363,8 +20104,11 @@
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E153" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>761</v>
       </c>
@@ -20374,7 +20118,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>765</v>
       </c>
@@ -20384,7 +20128,7 @@
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>768</v>
       </c>
@@ -20394,7 +20138,7 @@
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>770</v>
       </c>
@@ -20404,7 +20148,7 @@
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>772</v>
       </c>
@@ -20413,8 +20157,11 @@
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E158" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>773</v>
       </c>
@@ -20424,7 +20171,7 @@
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>774</v>
       </c>
@@ -20433,6 +20180,9 @@
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
+      <c r="E160" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
@@ -20914,7 +20664,7 @@
       <c r="C208" s="6"/>
       <c r="D208" s="7"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>975</v>
       </c>
@@ -20924,7 +20674,7 @@
       <c r="C209" s="6"/>
       <c r="D209" s="7"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>980</v>
       </c>
@@ -20934,7 +20684,7 @@
       <c r="C210" s="6"/>
       <c r="D210" s="7"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>982</v>
       </c>
@@ -20944,7 +20694,7 @@
       <c r="C211" s="6"/>
       <c r="D211" s="7"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>992</v>
       </c>
@@ -20954,7 +20704,7 @@
       <c r="C212" s="6"/>
       <c r="D212" s="7"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>995</v>
       </c>
@@ -20964,7 +20714,7 @@
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>996</v>
       </c>
@@ -20974,7 +20724,7 @@
       <c r="C214" s="6"/>
       <c r="D214" s="7"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1000</v>
       </c>
@@ -20984,7 +20734,7 @@
       <c r="C215" s="6"/>
       <c r="D215" s="7"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1001</v>
       </c>
@@ -20994,7 +20744,7 @@
       <c r="C216" s="6"/>
       <c r="D216" s="7"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1012</v>
       </c>
@@ -21004,7 +20754,7 @@
       <c r="C217" s="6"/>
       <c r="D217" s="7"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1028</v>
       </c>
@@ -21014,7 +20764,7 @@
       <c r="C218" s="6"/>
       <c r="D218" s="7"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1032</v>
       </c>
@@ -21024,7 +20774,7 @@
       <c r="C219" s="6"/>
       <c r="D219" s="7"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1036</v>
       </c>
@@ -21034,7 +20784,7 @@
       <c r="C220" s="6"/>
       <c r="D220" s="7"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1044</v>
       </c>
@@ -21044,7 +20794,7 @@
       <c r="C221" s="6"/>
       <c r="D221" s="7"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1063</v>
       </c>
@@ -21053,8 +20803,11 @@
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E222" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1067</v>
       </c>
@@ -21063,8 +20816,11 @@
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="7"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E223" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1074</v>
       </c>
@@ -21074,7 +20830,7 @@
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1088</v>
       </c>
@@ -21083,8 +20839,11 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="7"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E225" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1092</v>
       </c>
@@ -21094,7 +20853,7 @@
       <c r="C226" s="6"/>
       <c r="D226" s="7"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1095</v>
       </c>
@@ -21104,7 +20863,7 @@
       <c r="C227" s="6"/>
       <c r="D227" s="7"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1096</v>
       </c>
@@ -21114,7 +20873,7 @@
       <c r="C228" s="6"/>
       <c r="D228" s="7"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1097</v>
       </c>
@@ -21124,7 +20883,7 @@
       <c r="C229" s="6"/>
       <c r="D229" s="7"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1106</v>
       </c>
@@ -21134,7 +20893,7 @@
       <c r="C230" s="6"/>
       <c r="D230" s="7"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1121</v>
       </c>
@@ -21143,8 +20902,11 @@
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="7"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E231" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1125</v>
       </c>
@@ -21154,7 +20916,7 @@
       <c r="C232" s="6"/>
       <c r="D232" s="7"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1127</v>
       </c>
@@ -21164,7 +20926,7 @@
       <c r="C233" s="6"/>
       <c r="D233" s="7"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1136</v>
       </c>
@@ -21173,8 +20935,11 @@
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="7"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E234" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1147</v>
       </c>
@@ -21184,7 +20949,7 @@
       <c r="C235" s="6"/>
       <c r="D235" s="7"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1153</v>
       </c>
@@ -21193,8 +20958,11 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="7"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E236" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1157</v>
       </c>
@@ -21204,7 +20972,7 @@
       <c r="C237" s="6"/>
       <c r="D237" s="7"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1159</v>
       </c>
@@ -21214,7 +20982,7 @@
       <c r="C238" s="6"/>
       <c r="D238" s="7"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1163</v>
       </c>
@@ -21224,7 +20992,7 @@
       <c r="C239" s="6"/>
       <c r="D239" s="7"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1168</v>
       </c>
@@ -21233,8 +21001,11 @@
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="7"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E240" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1172</v>
       </c>
@@ -21244,7 +21015,7 @@
       <c r="C241" s="6"/>
       <c r="D241" s="7"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1178</v>
       </c>
@@ -21254,7 +21025,7 @@
       <c r="C242" s="6"/>
       <c r="D242" s="7"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1183</v>
       </c>
@@ -21263,8 +21034,11 @@
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="7"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E243" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1187</v>
       </c>
@@ -21274,7 +21048,7 @@
       <c r="C244" s="6"/>
       <c r="D244" s="7"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1192</v>
       </c>
@@ -21284,7 +21058,7 @@
       <c r="C245" s="6"/>
       <c r="D245" s="7"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1194</v>
       </c>
@@ -21294,7 +21068,7 @@
       <c r="C246" s="6"/>
       <c r="D246" s="7"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1199</v>
       </c>
@@ -21303,8 +21077,11 @@
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="7"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E247" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1203</v>
       </c>
@@ -21314,7 +21091,7 @@
       <c r="C248" s="6"/>
       <c r="D248" s="7"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1206</v>
       </c>
@@ -21324,7 +21101,7 @@
       <c r="C249" s="6"/>
       <c r="D249" s="7"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1210</v>
       </c>
@@ -21334,7 +21111,7 @@
       <c r="C250" s="6"/>
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1216</v>
       </c>
@@ -21343,8 +21120,11 @@
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="7"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E251" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1220</v>
       </c>
@@ -21354,7 +21134,7 @@
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1224</v>
       </c>
@@ -21364,7 +21144,7 @@
       <c r="C253" s="6"/>
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1225</v>
       </c>
@@ -21374,7 +21154,7 @@
       <c r="C254" s="6"/>
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1231</v>
       </c>
@@ -21383,8 +21163,11 @@
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="7"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E255" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1235</v>
       </c>
@@ -21394,7 +21177,7 @@
       <c r="C256" s="6"/>
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1240</v>
       </c>
@@ -21404,7 +21187,7 @@
       <c r="C257" s="6"/>
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1246</v>
       </c>
@@ -21413,8 +21196,11 @@
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="7"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E258" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1250</v>
       </c>
@@ -21424,7 +21210,7 @@
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1255</v>
       </c>
@@ -21434,7 +21220,7 @@
       <c r="C260" s="6"/>
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1259</v>
       </c>
@@ -21443,8 +21229,11 @@
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E261" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1263</v>
       </c>
@@ -21454,7 +21243,7 @@
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1269</v>
       </c>
@@ -21464,7 +21253,7 @@
       <c r="C263" s="6"/>
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1274</v>
       </c>
@@ -21473,8 +21262,11 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="7"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E264" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1278</v>
       </c>
@@ -21484,7 +21276,7 @@
       <c r="C265" s="6"/>
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1284</v>
       </c>
@@ -21494,7 +21286,7 @@
       <c r="C266" s="6"/>
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1289</v>
       </c>
@@ -21504,7 +21296,7 @@
       <c r="C267" s="6"/>
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1293</v>
       </c>
@@ -21514,7 +21306,7 @@
       <c r="C268" s="6"/>
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1298</v>
       </c>
@@ -21524,7 +21316,7 @@
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1301</v>
       </c>
@@ -21534,7 +21326,7 @@
       <c r="C270" s="6"/>
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1307</v>
       </c>
@@ -21544,7 +21336,7 @@
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1312</v>
       </c>
@@ -21723,210 +21515,6 @@
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C290" s="6"/>
-      <c r="D290" s="7"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C291" s="6"/>
-      <c r="D291" s="7"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C292" s="6"/>
-      <c r="D292" s="7"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C293" s="6"/>
-      <c r="D293" s="7"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C294" s="6"/>
-      <c r="D294" s="7"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C295" s="6"/>
-      <c r="D295" s="7"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C296" s="6"/>
-      <c r="D296" s="7"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C297" s="6"/>
-      <c r="D297" s="7"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C298" s="6"/>
-      <c r="D298" s="7"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C299" s="6"/>
-      <c r="D299" s="7"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C300" s="6"/>
-      <c r="D300" s="7"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C301" s="6"/>
-      <c r="D301" s="7"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C302" s="6"/>
-      <c r="D302" s="7"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C303" s="6"/>
-      <c r="D303" s="7"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C304" s="6"/>
-      <c r="D304" s="7"/>
-    </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C305" s="6"/>
-      <c r="D305" s="7"/>
-    </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C306" s="6"/>
-      <c r="D306" s="7"/>
-    </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C307" s="6"/>
-      <c r="D307" s="7"/>
-    </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C308" s="6"/>
-      <c r="D308" s="7"/>
-    </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C309" s="6"/>
-      <c r="D309" s="7"/>
-    </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C310" s="6"/>
-      <c r="D310" s="7"/>
-    </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C311" s="6"/>
-      <c r="D311" s="7"/>
-    </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C312" s="6"/>
-      <c r="D312" s="7"/>
-    </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C313" s="6"/>
-      <c r="D313" s="7"/>
-    </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C314" s="6"/>
-      <c r="D314" s="7"/>
-    </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C315" s="6"/>
-      <c r="D315" s="7"/>
-    </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C316" s="6"/>
-      <c r="D316" s="7"/>
-    </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C317" s="6"/>
-      <c r="D317" s="7"/>
-    </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C318" s="6"/>
-      <c r="D318" s="7"/>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C319" s="6"/>
-      <c r="D319" s="7"/>
-    </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C320" s="6"/>
-      <c r="D320" s="7"/>
-    </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C321" s="6"/>
-      <c r="D321" s="7"/>
-    </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C322" s="6"/>
-      <c r="D322" s="7"/>
-    </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C323" s="6"/>
-      <c r="D323" s="7"/>
-    </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C324" s="6"/>
-      <c r="D324" s="7"/>
-    </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C325" s="6"/>
-      <c r="D325" s="7"/>
-    </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C326" s="6"/>
-      <c r="D326" s="7"/>
-    </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C327" s="6"/>
-      <c r="D327" s="7"/>
-    </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C328" s="6"/>
-      <c r="D328" s="7"/>
-    </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C329" s="6"/>
-      <c r="D329" s="7"/>
-    </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C330" s="6"/>
-      <c r="D330" s="7"/>
-    </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C331" s="6"/>
-      <c r="D331" s="7"/>
-    </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C332" s="6"/>
-      <c r="D332" s="7"/>
-    </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C333" s="6"/>
-      <c r="D333" s="7"/>
-    </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C334" s="6"/>
-      <c r="D334" s="7"/>
-    </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C335" s="6"/>
-      <c r="D335" s="7"/>
-    </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C336" s="6"/>
-      <c r="D336" s="7"/>
-    </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C337" s="6"/>
-      <c r="D337" s="7"/>
-    </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C338" s="6"/>
-      <c r="D338" s="7"/>
-    </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C339" s="6"/>
-      <c r="D339" s="7"/>
-    </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C340" s="6"/>
-      <c r="D340" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56242F1-8191-4AB3-B5F9-43ACEAE31AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72565BAA-C7D2-4BAE-AA6E-7AA38CB37503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1390">
   <si>
     <t>Title</t>
   </si>
@@ -4594,18 +4594,18 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,18 +6397,19 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48:D51"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,8 +7205,12 @@
       <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="7">
+        <v>43913</v>
+      </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7215,8 +7220,12 @@
       <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="7">
+        <v>43913</v>
+      </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -10472,16 +10481,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17567,13 +17577,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:E289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
   </cols>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72565BAA-C7D2-4BAE-AA6E-7AA38CB37503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0312773B-D17B-4833-AFD4-C49988D52169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1390">
   <si>
     <t>Title</t>
   </si>
@@ -6397,9 +6397,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7238,6 +7238,9 @@
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
       <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0312773B-D17B-4833-AFD4-C49988D52169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAF268-CB2C-43B7-9272-EF9F67DFEC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1391">
   <si>
     <t>Title</t>
   </si>
@@ -4210,6 +4210,9 @@
   </si>
   <si>
     <t>List</t>
+  </si>
+  <si>
+    <t>Tree</t>
   </si>
 </sst>
 </file>
@@ -6397,9 +6400,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,6 +6755,9 @@
         <v>43909</v>
       </c>
       <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -6767,6 +6773,9 @@
         <v>43909</v>
       </c>
       <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -6782,6 +6791,9 @@
         <v>43909</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -6797,6 +6809,9 @@
         <v>43909</v>
       </c>
       <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -6812,6 +6827,9 @@
         <v>43909</v>
       </c>
       <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -6824,9 +6842,12 @@
         <v>342</v>
       </c>
       <c r="D27" s="7">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -6842,6 +6863,9 @@
         <v>43911</v>
       </c>
       <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -6857,6 +6881,9 @@
         <v>43911</v>
       </c>
       <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -8082,7 +8109,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>507</v>
       </c>
@@ -8093,7 +8120,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>509</v>
       </c>
@@ -8104,7 +8131,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>520</v>
       </c>
@@ -8115,7 +8142,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>521</v>
       </c>
@@ -8126,7 +8153,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>530</v>
       </c>
@@ -8137,7 +8164,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>532</v>
       </c>
@@ -8148,7 +8175,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>538</v>
       </c>
@@ -8162,8 +8189,11 @@
         <v>43912</v>
       </c>
       <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>541</v>
       </c>
@@ -8174,7 +8204,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>543</v>
       </c>
@@ -8185,7 +8215,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>551</v>
       </c>
@@ -8196,7 +8226,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>557</v>
       </c>
@@ -8207,7 +8237,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>559</v>
       </c>
@@ -8218,7 +8248,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>561</v>
       </c>
@@ -8229,7 +8259,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>563</v>
       </c>
@@ -8240,7 +8270,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>566</v>
       </c>
@@ -8251,7 +8281,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>572</v>
       </c>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAF268-CB2C-43B7-9272-EF9F67DFEC29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972D7FD-0191-45B2-87B0-761959BB2315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1392">
   <si>
     <t>Title</t>
   </si>
@@ -4213,6 +4213,9 @@
   </si>
   <si>
     <t>Tree</t>
+  </si>
+  <si>
+    <t>deque</t>
   </si>
 </sst>
 </file>
@@ -6400,9 +6403,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7146,6 +7149,9 @@
         <v>43913</v>
       </c>
       <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972D7FD-0191-45B2-87B0-761959BB2315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F46AF2-8099-4E29-AC61-798AB2F61B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1392">
   <si>
     <t>Title</t>
   </si>
@@ -6403,9 +6403,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7318,6 +7318,9 @@
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F46AF2-8099-4E29-AC61-798AB2F61B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C672B-8895-4A1F-ABEF-DC8DE4F5CA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1392">
   <si>
     <t>Title</t>
   </si>
@@ -4215,7 +4215,7 @@
     <t>Tree</t>
   </si>
   <si>
-    <t>deque</t>
+    <t>Deque</t>
   </si>
 </sst>
 </file>
@@ -6403,9 +6403,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,6 +7343,9 @@
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
       <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C672B-8895-4A1F-ABEF-DC8DE4F5CA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B937F-A72C-45CE-BE63-AE90484AE8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1392">
   <si>
     <t>Title</t>
   </si>
@@ -6405,7 +6405,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,8 +7268,12 @@
       <c r="B54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="7">
+        <v>43913</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>1389</v>
@@ -7282,8 +7286,12 @@
       <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="7">
+        <v>43913</v>
+      </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,8 +7301,12 @@
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="7">
+        <v>43913</v>
+      </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,8 +7316,12 @@
       <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="7">
+        <v>43913</v>
+      </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,8 +7331,12 @@
       <c r="B58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D58" s="7">
+        <v>43913</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
         <v>1390</v>
@@ -7329,8 +7349,12 @@
       <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="7">
+        <v>43913</v>
+      </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,8 +7364,12 @@
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="7">
+        <v>43913</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
         <v>1391</v>
@@ -7354,9 +7382,16 @@
       <c r="B61" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
+      <c r="C61" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D61" s="7">
+        <v>43913</v>
+      </c>
       <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B937F-A72C-45CE-BE63-AE90484AE8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF937F-E670-4494-9798-8ACD0F3CFB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="390" yWindow="1305" windowWidth="21600" windowHeight="11145" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1392">
   <si>
     <t>Title</t>
   </si>
@@ -6405,7 +6405,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54:D61"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7400,9 +7400,16 @@
       <c r="B62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="7">
+        <v>43913</v>
+      </c>
       <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -7411,9 +7418,16 @@
       <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="7">
+        <v>43913</v>
+      </c>
       <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -7422,8 +7436,12 @@
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="7">
+        <v>43913</v>
+      </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF937F-E670-4494-9798-8ACD0F3CFB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FBC772-03C0-47B7-80A8-489DBF1CFC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1305" windowWidth="21600" windowHeight="11145" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -4599,9 +4599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,10 +6402,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10578,8 +10578,8 @@
   <dimension ref="A1:F704"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17674,7 +17674,7 @@
   <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A1:E289"/>
     </sheetView>
   </sheetViews>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FBC772-03C0-47B7-80A8-489DBF1CFC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390A372-BBF9-4F51-B50F-74E837FC30FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1393">
   <si>
     <t>Title</t>
   </si>
@@ -4216,6 +4216,9 @@
   </si>
   <si>
     <t>Deque</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -4599,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F102"/>
     </sheetView>
   </sheetViews>
@@ -6402,10 +6405,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,6 +7200,9 @@
         <v>43913</v>
       </c>
       <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -7444,7 +7450,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>243</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>246</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>252</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>256</v>
       </c>
@@ -7495,8 +7501,11 @@
       <c r="E68" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>257</v>
       </c>
@@ -7507,7 +7516,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>258</v>
       </c>
@@ -7518,7 +7527,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>263</v>
       </c>
@@ -7529,7 +7538,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>266</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>268</v>
       </c>
@@ -7553,7 +7562,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>270</v>
       </c>
@@ -7566,7 +7575,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>276</v>
       </c>
@@ -7578,8 +7587,11 @@
       <c r="E75" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>278</v>
       </c>
@@ -7590,7 +7602,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>283</v>
       </c>
@@ -7601,7 +7613,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>290</v>
       </c>
@@ -7612,7 +7624,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>292</v>
       </c>
@@ -7623,7 +7635,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>293</v>
       </c>
@@ -10578,8 +10590,8 @@
   <dimension ref="A1:F704"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F704"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11604,7 +11616,7 @@
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>179</v>
       </c>
@@ -11614,7 +11626,7 @@
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>180</v>
       </c>
@@ -11624,7 +11636,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>184</v>
       </c>
@@ -11634,7 +11646,7 @@
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>186</v>
       </c>
@@ -11647,7 +11659,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>187</v>
       </c>
@@ -11657,7 +11669,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>192</v>
       </c>
@@ -11667,7 +11679,7 @@
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>194</v>
       </c>
@@ -11677,7 +11689,7 @@
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>199</v>
       </c>
@@ -11687,7 +11699,7 @@
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>200</v>
       </c>
@@ -11697,7 +11709,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>201</v>
       </c>
@@ -11707,7 +11719,7 @@
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>207</v>
       </c>
@@ -11717,7 +11729,7 @@
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>208</v>
       </c>
@@ -11727,7 +11739,7 @@
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>209</v>
       </c>
@@ -11737,7 +11749,7 @@
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>210</v>
       </c>
@@ -11747,7 +11759,7 @@
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>211</v>
       </c>
@@ -11757,7 +11769,7 @@
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>213</v>
       </c>
@@ -11766,6 +11778,9 @@
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
+      <c r="F112" s="2" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390A372-BBF9-4F51-B50F-74E837FC30FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF9FF-D36E-4EA0-8A35-3C496E62DBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1393">
   <si>
     <t>Title</t>
   </si>
@@ -6406,9 +6406,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,8 +7457,12 @@
       <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" s="7">
+        <v>43914</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>342</v>
       </c>
@@ -7470,8 +7474,12 @@
       <c r="B66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="C66" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="7">
+        <v>43914</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>342</v>
       </c>
@@ -7483,8 +7491,12 @@
       <c r="B67" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="C67" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D67" s="7">
+        <v>43914</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>342</v>
       </c>
@@ -7496,8 +7508,12 @@
       <c r="B68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
+      <c r="C68" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="7">
+        <v>43914</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>342</v>
       </c>
@@ -7512,9 +7528,16 @@
       <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="7">
+        <v>43914</v>
+      </c>
       <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -7523,8 +7546,12 @@
       <c r="B70" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
+      <c r="C70" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" s="7">
+        <v>43914</v>
+      </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7534,8 +7561,12 @@
       <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
+      <c r="C71" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="7">
+        <v>43914</v>
+      </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,8 +7576,12 @@
       <c r="B72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
+      <c r="C72" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" s="7">
+        <v>43914</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>342</v>
       </c>
@@ -7558,8 +7593,12 @@
       <c r="B73" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
+      <c r="C73" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="7">
+        <v>43914</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7569,8 +7608,12 @@
       <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
+      <c r="C74" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="7">
+        <v>43914</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>342</v>
       </c>
@@ -7582,8 +7625,12 @@
       <c r="B75" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
+      <c r="C75" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="7">
+        <v>43914</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>342</v>
       </c>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AF9FF-D36E-4EA0-8A35-3C496E62DBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F4871-613F-4D8F-91DD-1AAEB3DCDE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1393">
   <si>
     <t>Title</t>
   </si>
@@ -6405,10 +6405,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66:D75"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7616,6 +7616,9 @@
       </c>
       <c r="E74" s="2" t="s">
         <v>342</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F4871-613F-4D8F-91DD-1AAEB3DCDE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D64A0A-BEEE-4BB3-BB27-26970EDEB861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1393">
   <si>
     <t>Title</t>
   </si>
@@ -6405,20 +6405,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" sqref="A1:F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17738,9 +17738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:E289"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17748,7 +17748,8 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17775,8 +17776,12 @@
       <c r="B2" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43914</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D64A0A-BEEE-4BB3-BB27-26970EDEB861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2568BFC-2EDB-434E-886C-B3FFD22F9F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -6405,10 +6405,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:F340"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17738,9 +17738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE5350F-E9AD-44A5-B7CD-EBAEBF601B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD264B-1A22-4545-A8FB-6F0BF055ABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1393">
   <si>
     <t>Title</t>
   </si>
@@ -6405,10 +6405,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B2:B81"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,8 +7743,12 @@
       <c r="B82" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="C82" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="7">
+        <v>43915</v>
+      </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -7754,8 +7758,12 @@
       <c r="B83" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
+      <c r="C83" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="7">
+        <v>43915</v>
+      </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -7765,8 +7773,12 @@
       <c r="B84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
+      <c r="C84" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="7">
+        <v>43915</v>
+      </c>
       <c r="E84" s="2" t="s">
         <v>342</v>
       </c>
@@ -7778,8 +7790,12 @@
       <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
+      <c r="C85" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="7">
+        <v>43915</v>
+      </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -7789,8 +7805,12 @@
       <c r="B86" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
+      <c r="C86" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="7">
+        <v>43915</v>
+      </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -7800,8 +7820,12 @@
       <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="C87" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" s="7">
+        <v>43915</v>
+      </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -7811,8 +7835,12 @@
       <c r="B88" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
+      <c r="C88" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="7">
+        <v>43915</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>342</v>
       </c>
@@ -7824,8 +7852,12 @@
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
+      <c r="C89" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="7">
+        <v>43915</v>
+      </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -17765,7 +17797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD264B-1A22-4545-A8FB-6F0BF055ABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C97B6-6832-4542-ACF8-A2BFEB69DF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
     <sheet name="Alg - easy" sheetId="1" r:id="rId2"/>
     <sheet name="Alg - medium" sheetId="2" r:id="rId3"/>
     <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
+    <sheet name="Shell" sheetId="6" r:id="rId5"/>
+    <sheet name="Concurrency" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$340</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$289</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$C$1:$D$704</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$C$1:$D$702</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concurrency!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1398">
   <si>
     <t>Title</t>
   </si>
@@ -4219,6 +4222,21 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Light Controlled Intersection    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print in Order    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenth Line    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Phone Numbers    </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -4250,7 +4268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4258,11 +4276,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4285,6 +4329,13 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4600,11 +4651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,7 +4668,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -4636,8 +4687,14 @@
       <c r="F1" s="5" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
@@ -4655,7 +4712,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176</v>
       </c>
@@ -4673,7 +4730,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>181</v>
       </c>
@@ -4691,7 +4748,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>182</v>
       </c>
@@ -4709,7 +4766,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>183</v>
       </c>
@@ -4727,7 +4784,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>196</v>
       </c>
@@ -4745,7 +4802,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>197</v>
       </c>
@@ -4763,7 +4820,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>511</v>
       </c>
@@ -4783,7 +4840,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>512</v>
       </c>
@@ -4803,7 +4860,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>577</v>
       </c>
@@ -4823,7 +4880,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>584</v>
       </c>
@@ -4843,7 +4900,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>586</v>
       </c>
@@ -4861,7 +4918,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>595</v>
       </c>
@@ -4879,7 +4936,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>596</v>
       </c>
@@ -4897,7 +4954,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>597</v>
       </c>
@@ -6403,12 +6460,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C89"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6421,7 +6478,7 @@
     <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -6440,8 +6497,14 @@
       <c r="F1" s="5" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6456,7 +6519,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -6471,7 +6534,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6486,7 +6549,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -6501,7 +6564,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -6516,7 +6579,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -6531,7 +6594,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -6549,7 +6612,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -6564,7 +6627,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -6579,7 +6642,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -6594,7 +6657,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -6609,7 +6672,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38</v>
       </c>
@@ -6624,7 +6687,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
@@ -6639,7 +6702,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -6654,7 +6717,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -10696,11 +10759,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F704"/>
+  <dimension ref="A1:H702"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C2:C24"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,7 +10776,7 @@
     <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -10732,8 +10795,14 @@
       <c r="F1" s="5" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10750,7 +10819,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10760,7 +10829,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -10770,7 +10839,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10784,7 +10853,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -10794,7 +10863,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -10804,7 +10873,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -10814,7 +10883,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -10824,7 +10893,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -10834,7 +10903,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -10848,7 +10917,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -10858,7 +10927,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -10875,7 +10944,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -10889,7 +10958,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -10899,7 +10968,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -11780,263 +11849,269 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
+      <c r="F110" s="2" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
-      <c r="F112" s="2" t="s">
-        <v>1392</v>
-      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B116" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B118" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
+      <c r="E125" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
+      <c r="E126" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
@@ -12046,10 +12121,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
@@ -12059,10 +12134,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
@@ -12072,10 +12147,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
@@ -12085,10 +12160,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
@@ -12098,10 +12173,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
@@ -12111,10 +12186,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B133" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
@@ -12124,10 +12199,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
@@ -12137,23 +12212,20 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B135" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B136" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
@@ -12163,20 +12235,20 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
@@ -12186,66 +12258,66 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
+      <c r="E139" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
+      <c r="E142" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B144" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
@@ -12255,33 +12327,33 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B145" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
+      <c r="E145" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
-      <c r="E146" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B147" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
@@ -12291,33 +12363,33 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
+      <c r="E148" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B149" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B150" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
@@ -12327,20 +12399,20 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B152" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
@@ -12350,106 +12422,106 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
+      <c r="E153" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B154" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
-      <c r="E155" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B159" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B160" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
+      <c r="E160" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B161" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B162" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
@@ -12459,53 +12531,53 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B165" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
+      <c r="E165" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B166" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B167" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
@@ -12515,20 +12587,20 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B168" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B169" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
@@ -12538,136 +12610,139 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B170" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B171" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B172" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B173" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
+      <c r="E173" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B174" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B175" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B176" t="s">
-        <v>517</v>
+        <v>1047</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B177" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B178" t="s">
-        <v>1047</v>
+        <v>520</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B179" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B180" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
+      <c r="E180" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B181" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
+      <c r="E181" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B182" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
@@ -12677,23 +12752,20 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B184" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
@@ -12703,20 +12775,20 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B185" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B186" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
@@ -12726,20 +12798,23 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B187" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
+      <c r="E187" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B188" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
@@ -12749,10 +12824,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B189" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="7"/>
@@ -12762,23 +12837,20 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B190" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B191" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="7"/>
@@ -12788,20 +12860,20 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B192" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="7"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B193" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="7"/>
@@ -12811,455 +12883,455 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B194" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="7"/>
+      <c r="E194" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B195" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B196" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B197" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B198" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B199" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="7"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B200" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="7"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B201" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="7"/>
+      <c r="E201" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B202" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B203" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="7"/>
-      <c r="E203" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B204" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B205" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="7"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B206" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="7"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="7"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B208" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="7"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B209" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B210" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B211" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B212" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="7"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B213" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B214" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B215" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="7"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B216" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="7"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B217" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="7"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B218" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="7"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B219" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="7"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B220" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B221" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="7"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B222" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
+      <c r="E222" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B223" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B224" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
-      <c r="E224" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B225" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="7"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B226" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="7"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B227" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="7"/>
+      <c r="E227" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B228" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="7"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="7"/>
-      <c r="E229" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B230" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="7"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="7"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B232" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="7"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B233" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B234" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B235" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="7"/>
+      <c r="E235" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B236" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="7"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B237" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="7"/>
@@ -13269,226 +13341,226 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B238" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="7"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="7"/>
-      <c r="E239" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B240" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="7"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B241" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="7"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B242" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="7"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B243" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="7"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B244" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="7"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B245" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="7"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B246" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="7"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B247" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="7"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B248" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="7"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B249" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="7"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B250" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="7"/>
+      <c r="E250" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B251" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="7"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B252" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
-      <c r="E252" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B253" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="7"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B254" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="7"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B255" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="7"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B256" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B257" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="7"/>
+      <c r="E257" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B258" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="7"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B259" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
@@ -13498,106 +13570,106 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B260" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="7"/>
+      <c r="E260" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B261" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
-      <c r="E261" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B262" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
-      <c r="E262" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B263" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="7"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B264" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="7"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B265" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B266" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="7"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B267" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="7"/>
+      <c r="E267" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B268" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B269" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
@@ -13607,265 +13679,265 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B270" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="7"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B271" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
-      <c r="E271" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B272" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="7"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B273" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B274" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B275" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="7"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B276" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B277" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B278" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="7"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B279" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="7"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B280" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="7"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B281" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="7"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B282" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="7"/>
+      <c r="E282" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B283" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="7"/>
+      <c r="E283" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B284" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
-      <c r="E284" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B285" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="7"/>
-      <c r="E285" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B286" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="7"/>
+      <c r="E286" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B287" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="7"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B288" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
-      <c r="E288" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B289" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B290" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="7"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B291" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="7"/>
+      <c r="E291" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B292" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="7"/>
+      <c r="E292" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B293" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="7"/>
-      <c r="E293" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B294" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
@@ -13875,371 +13947,374 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B295" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="7"/>
+      <c r="E295" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B296" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="7"/>
-      <c r="E296" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B297" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
-      <c r="E297" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B298" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="7"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B299" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="7"/>
+      <c r="E299" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B300" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="7"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B301" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
-      <c r="E301" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B302" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="7"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B303" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="7"/>
+      <c r="E303" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B304" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C304" s="6"/>
       <c r="D304" s="7"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B305" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
-      <c r="E305" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B306" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="7"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B307" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="7"/>
+      <c r="E307" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B308" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="7"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B309" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="7"/>
-      <c r="E309" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B310" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="7"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B311" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B312" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="7"/>
+      <c r="E312" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B313" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="7"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B314" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
-      <c r="E314" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B315" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="7"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B316" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="7"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B317" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="7"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="B318" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="7"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B319" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="7"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B320" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="7"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B321" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="7"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B322" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="7"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B323" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="7"/>
+      <c r="E323" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B324" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="7"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B325" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="7"/>
-      <c r="E325" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B326" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="7"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B327" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="7"/>
+      <c r="E327" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B328" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="7"/>
+      <c r="E328" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B329" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="7"/>
@@ -14249,356 +14324,351 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B330" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="7"/>
-      <c r="E330" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B331" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="7"/>
-      <c r="E331" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B332" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="7"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B333" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="7"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B334" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="7"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B335" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="7"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B336" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="7"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B337" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="7"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B338" t="s">
-        <v>679</v>
-      </c>
-      <c r="C338" s="6"/>
-      <c r="D338" s="7"/>
+        <v>681</v>
+      </c>
+      <c r="D338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B339" t="s">
-        <v>680</v>
-      </c>
-      <c r="C339" s="6"/>
-      <c r="D339" s="7"/>
+        <v>682</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B340" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B341" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D341" s="4"/>
-      <c r="E341" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B342" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B343" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B344" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B345" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B346" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D346" s="4"/>
+      <c r="E346" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B347" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D347" s="4"/>
+      <c r="E347" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B348" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D348" s="4"/>
-      <c r="E348" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B349" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D349" s="4"/>
-      <c r="E349" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B350" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B351" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B352" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B353" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B354" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B355" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D355" s="4"/>
+      <c r="E355" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B356" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B357" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D357" s="4"/>
-      <c r="E357" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B358" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B359" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D359" s="4"/>
+      <c r="E359" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B360" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B361" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D361" s="4"/>
-      <c r="E361" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B362" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B363" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D363" s="4"/>
+      <c r="E363" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B364" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B365" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365" s="2" t="s">
@@ -14607,172 +14677,172 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B366" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B367" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D367" s="4"/>
-      <c r="E367" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B368" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B369" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B370" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B371" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B372" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D372" s="4"/>
+      <c r="E372" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B373" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B374" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D374" s="4"/>
-      <c r="E374" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B375" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B376" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B377" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D377" s="4"/>
+      <c r="E377" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B378" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D379" s="4"/>
-      <c r="E379" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B380" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B381" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D381" s="4"/>
+      <c r="E381" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B382" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="B383" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383" s="2" t="s">
@@ -14781,1392 +14851,1395 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B384" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B385" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D385" s="4"/>
-      <c r="E385" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B386" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D386" s="4"/>
+      <c r="E386" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B387" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B388" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D388" s="4"/>
-      <c r="E388" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="B389" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B390" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B391" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B392" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B393" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D393" s="4"/>
+      <c r="E393" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B394" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B395" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D395" s="4"/>
-      <c r="E395" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B396" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B397" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B398" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B399" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B400" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B401" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B402" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B403" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B404" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B405" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B406" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B407" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B408" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B409" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B410" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B411" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B412" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B413" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B414" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B415" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B416" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B417" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B418" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B419" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B420" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B421" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D421" s="4"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B422" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D422" s="4"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B423" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D423" s="4"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B424" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D424" s="4"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B425" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D425" s="4"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B426" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D426" s="4"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B427" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D427" s="4"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B428" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D428" s="4"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B429" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D429" s="4"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B430" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D430" s="4"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B431" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D431" s="4"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B432" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D432" s="4"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B433" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B434" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D434" s="4"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B435" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D435" s="4"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B436" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D436" s="4"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B437" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D437" s="4"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B438" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D438" s="4"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B439" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D439" s="4"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B440" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D440" s="4"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B441" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D441" s="4"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B442" t="s">
-        <v>783</v>
-      </c>
-      <c r="D442" s="4"/>
+        <v>785</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D442" s="4">
+        <v>43910</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B443" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D443" s="4"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B444" t="s">
-        <v>785</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D444" s="4">
-        <v>43910</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="D444" s="4"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B445" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D445" s="4"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B446" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D446" s="4"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="B447" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D447" s="4"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B448" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D448" s="4"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B449" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D449" s="4"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B450" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D450" s="4"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B451" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D451" s="4"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="B452" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D452" s="4"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B453" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D453" s="4"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B454" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D454" s="4"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B455" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D455" s="4"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="B456" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D456" s="4"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B457" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D457" s="4"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B458" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D458" s="4"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B459" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D459" s="4"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B460" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D460" s="4"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B461" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D461" s="4"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B462" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D462" s="4"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B463" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D463" s="4"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B464" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D464" s="4"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B465" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D465" s="4"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B466" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D466" s="4"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B467" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D467" s="4"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="B468" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D468" s="4"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B469" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D469" s="4"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B470" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D470" s="4"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B471" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D471" s="4"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B472" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D472" s="4"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="B473" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D473" s="4"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="B474" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D474" s="4"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="B475" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D475" s="4"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B476" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D476" s="4"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B477" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D477" s="4"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B478" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D478" s="4"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B479" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D479" s="4"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B480" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D480" s="4"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B481" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D481" s="4"/>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B482" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D482" s="4"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B483" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D483" s="4"/>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B484" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D484" s="4"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B485" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D485" s="4"/>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B486" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D486" s="4"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B487" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D487" s="4"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B488" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D488" s="4"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B489" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D489" s="4"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B490" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D490" s="4"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B491" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D491" s="4"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B492" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D492" s="4"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B493" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D493" s="4"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="B494" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D494" s="4"/>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B495" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D495" s="4"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B496" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D496" s="4"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B497" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D497" s="4"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B498" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D498" s="4"/>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B499" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D499" s="4"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B500" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D500" s="4"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B501" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D501" s="4"/>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B502" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D502" s="4"/>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B503" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D503" s="4"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="B504" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D504" s="4"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="B505" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D505" s="4"/>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B506" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D506" s="4"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B507" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D507" s="4"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B508" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D508" s="4"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B509" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D509" s="4"/>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B510" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D510" s="4"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B511" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D511" s="4"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B512" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D512" s="4"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B513" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D513" s="4"/>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B514" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D514" s="4"/>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B515" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D515" s="4"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B516" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D516" s="4"/>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B517" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D517" s="4"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B518" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D518" s="4"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B519" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D519" s="4"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B520" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D520" s="4"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="B521" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D521" s="4"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B522" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D522" s="4"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B523" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D523" s="4"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B524" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D524" s="4"/>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B525" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D525" s="4"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B526" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D526" s="4"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B527" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D527" s="4"/>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B528" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D528" s="4"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="B529" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D529" s="4"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B530" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D530" s="4"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B531" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D531" s="4"/>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B532" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D532" s="4"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B533" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D533" s="4"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B534" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D534" s="4"/>
+      <c r="E534" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B535" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D535" s="4"/>
+      <c r="E535" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="B536" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536" s="2" t="s">
@@ -16175,10 +16248,10 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B537" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537" s="2" t="s">
@@ -16187,10 +16260,10 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B538" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538" s="2" t="s">
@@ -16199,10 +16272,10 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B539" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539" s="2" t="s">
@@ -16211,10 +16284,10 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B540" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540" s="2" t="s">
@@ -16223,10 +16296,10 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="B541" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541" s="2" t="s">
@@ -16235,145 +16308,145 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="B542" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D542" s="4"/>
-      <c r="E542" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="B543" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D543" s="4"/>
-      <c r="E543" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B544" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D544" s="4"/>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B545" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D545" s="4"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B546" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D546" s="4"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B547" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D547" s="4"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="B548" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D548" s="4"/>
+      <c r="E548" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="B549" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D549" s="4"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B550" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D550" s="4"/>
-      <c r="E550" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B551" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D551" s="4"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B552" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D552" s="4"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="B553" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D553" s="4"/>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B554" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D554" s="4"/>
+      <c r="E554" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B555" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D555" s="4"/>
+      <c r="E555" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B556" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556" s="2" t="s">
@@ -16382,814 +16455,814 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="B557" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D557" s="4"/>
-      <c r="E557" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B558" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D558" s="4"/>
-      <c r="E558" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B559" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D559" s="4"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B560" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D560" s="4"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B561" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D561" s="4"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B562" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D562" s="4"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B563" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D563" s="4"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B564" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D564" s="4"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B565" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D565" s="4"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B566" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D566" s="4"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B567" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D567" s="4"/>
+      <c r="E567" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="B568" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D568" s="4"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B569" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D569" s="4"/>
-      <c r="E569" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B570" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D570" s="4"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="B571" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D571" s="4"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B572" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D572" s="4"/>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B573" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D573" s="4"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B574" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D574" s="4"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B575" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D575" s="4"/>
+      <c r="E575" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="B576" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D576" s="4"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B577" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D577" s="4"/>
-      <c r="E577" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B578" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D578" s="4"/>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B579" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D579" s="4"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B580" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D580" s="4"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B581" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D581" s="4"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B582" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D582" s="4"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B583" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D583" s="4"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B584" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D584" s="4"/>
+      <c r="E584" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B585" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D585" s="4"/>
+      <c r="E585" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B586" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D586" s="4"/>
-      <c r="E586" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B587" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D587" s="4"/>
-      <c r="E587" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="B588" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D588" s="4"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B589" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D589" s="4"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B590" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D590" s="4"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B591" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D591" s="4"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B592" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D592" s="4"/>
+      <c r="E592" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="B593" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D593" s="4"/>
+      <c r="E593" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B594" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D594" s="4"/>
-      <c r="E594" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B595" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D595" s="4"/>
-      <c r="E595" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="B596" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D596" s="4"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B597" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D597" s="4"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B598" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D598" s="4"/>
+      <c r="E598" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B599" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D599" s="4"/>
+      <c r="E599" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="B600" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D600" s="4"/>
-      <c r="E600" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B601" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D601" s="4"/>
-      <c r="E601" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B602" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D602" s="4"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B603" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D603" s="4"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B604" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D604" s="4"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B605" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D605" s="4"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B606" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D606" s="4"/>
+      <c r="E606" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B607" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D607" s="4"/>
+      <c r="E607" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B608" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D608" s="4"/>
-      <c r="E608" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B609" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D609" s="4"/>
-      <c r="E609" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B610" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D610" s="4"/>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B611" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D611" s="4"/>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B612" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D612" s="4"/>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B613" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D613" s="4"/>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B614" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D614" s="4"/>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B615" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D615" s="4"/>
+      <c r="E615" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B616" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D616" s="4"/>
+      <c r="E616" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B617" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D617" s="4"/>
-      <c r="E617" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B618" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D618" s="4"/>
-      <c r="E618" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B619" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D619" s="4"/>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B620" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D620" s="4"/>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B621" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D621" s="4"/>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B622" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D622" s="4"/>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B623" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D623" s="4"/>
+      <c r="E623" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B624" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D624" s="4"/>
+      <c r="E624" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B625" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D625" s="4"/>
-      <c r="E625" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B626" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D626" s="4"/>
-      <c r="E626" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B627" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D627" s="4"/>
+      <c r="E627" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B628" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D628" s="4"/>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B629" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D629" s="4"/>
-      <c r="E629" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B630" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D630" s="4"/>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B631" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D631" s="4"/>
+      <c r="E631" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B632" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D632" s="4"/>
+      <c r="E632" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B633" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D633" s="4"/>
-      <c r="E633" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B634" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D634" s="4"/>
-      <c r="E634" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B635" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D635" s="4"/>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B636" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D636" s="4"/>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="B637" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D637" s="4"/>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B638" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D638" s="4"/>
+      <c r="E638" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="B639" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D639" s="4"/>
+      <c r="E639" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B640" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D640" s="4"/>
       <c r="E640" s="2" t="s">
@@ -17198,594 +17271,570 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="B641" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D641" s="4"/>
-      <c r="E641" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B642" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D642" s="4"/>
-      <c r="E642" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B643" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D643" s="4"/>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B644" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D644" s="4"/>
+      <c r="E644" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B645" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D645" s="4"/>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B646" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D646" s="4"/>
-      <c r="E646" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B647" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D647" s="4"/>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B648" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D648" s="4"/>
+      <c r="E648" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B649" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D649" s="4"/>
+      <c r="E649" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B650" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D650" s="4"/>
-      <c r="E650" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B651" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D651" s="4"/>
-      <c r="E651" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="B652" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D652" s="4"/>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B653" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D653" s="4"/>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B654" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D654" s="4"/>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B655" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D655" s="4"/>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B656" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D656" s="4"/>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B657" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D657" s="4"/>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="B658" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D658" s="4"/>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="B659" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D659" s="4"/>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="B660" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D660" s="4"/>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="B661" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D661" s="4"/>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="B662" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D662" s="4"/>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="B663" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D663" s="4"/>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="B664" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D664" s="4"/>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B665" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D665" s="4"/>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="B666" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D666" s="4"/>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B667" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D667" s="4"/>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="B668" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D668" s="4"/>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B669" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D669" s="4"/>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="B670" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D670" s="4"/>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B671" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D671" s="4"/>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B672" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D672" s="4"/>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B673" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D673" s="4"/>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B674" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D674" s="4"/>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B675" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D675" s="4"/>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B676" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D676" s="4"/>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B677" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D677" s="4"/>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="B678" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D678" s="4"/>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="B679" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D679" s="4"/>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="B680" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D680" s="4"/>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B681" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D681" s="4"/>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="B682" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D682" s="4"/>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B683" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D683" s="4"/>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="B684" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D684" s="4"/>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="B685" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D685" s="4"/>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="B686" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D686" s="4"/>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="B687" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D687" s="4"/>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B688" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D688" s="4"/>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="B689" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D689" s="4"/>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="B690" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D690" s="4"/>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B691" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D691" s="4"/>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="B692" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D692" s="4"/>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="B693" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D693" s="4"/>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="B694" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D694" s="4"/>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B695" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D695" s="4"/>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="B696" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D696" s="4"/>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="B697" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D697" s="4"/>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="B698" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D698" s="4"/>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B699" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D699" s="4"/>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="B700" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D700" s="4"/>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="B701" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D701" s="4"/>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B702" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D702" s="4"/>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A703">
-        <v>1381</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D703" s="4"/>
-    </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A704">
-        <v>1382</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D704" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17795,11 +17844,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17811,7 +17860,7 @@
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -17827,8 +17876,17 @@
       <c r="E1" s="5" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -17842,7 +17900,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -17852,7 +17910,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -17862,7 +17920,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -17872,7 +17930,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -17882,7 +17940,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -17892,7 +17950,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -17902,7 +17960,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -17912,7 +17970,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42</v>
       </c>
@@ -17922,7 +17980,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -17932,7 +17990,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -17942,7 +18000,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -17952,7 +18010,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -17962,7 +18020,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -17972,7 +18030,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -20858,6 +20916,303 @@
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37497FFA-B857-47FD-8E81-E2547608F60C}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43912</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43912</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43915</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43915</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980B35B-94CC-442B-9413-90B22115DF3F}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1" s="9">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10">
+        <f>SUM(SQL!H1,'Alg - easy'!H1,'Alg - medium'!H1,'Alg - hard'!H1,Shell!H1,Concurrency!H1)</f>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>910</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>965</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C97B6-6832-4542-ACF8-A2BFEB69DF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E4A79-0FEB-4C84-B3A4-D68D7E4293BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1398">
   <si>
     <t>Title</t>
   </si>
@@ -4653,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
     </sheetView>
@@ -6460,12 +6460,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6478,7 +6478,7 @@
     <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -6503,8 +6503,11 @@
       <c r="H1" s="9">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6519,7 +6522,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -6534,7 +6537,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6549,7 +6552,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -6564,7 +6567,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -6579,7 +6582,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -6594,7 +6597,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -6627,7 +6630,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -6642,7 +6645,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -6657,7 +6660,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38</v>
       </c>
@@ -6687,7 +6690,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
@@ -6702,7 +6705,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -6717,7 +6720,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -10759,11 +10762,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H702"/>
+  <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10776,7 +10779,7 @@
     <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -10801,8 +10804,11 @@
       <c r="H1" s="9">
         <v>701</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10819,7 +10825,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10829,7 +10835,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -10839,7 +10845,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -10863,7 +10869,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -10873,7 +10879,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -10883,7 +10889,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -10893,7 +10899,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -10903,7 +10909,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -10917,7 +10923,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -10927,7 +10933,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -10944,7 +10950,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -10958,7 +10964,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -10968,7 +10974,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -17844,11 +17850,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17860,7 +17866,7 @@
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -17885,8 +17891,11 @@
       <c r="H1" s="9">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -17900,7 +17909,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -17910,7 +17919,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -17920,7 +17929,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -17930,7 +17939,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -17940,7 +17949,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -17950,7 +17959,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -17960,7 +17969,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -17970,7 +17979,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42</v>
       </c>
@@ -17980,7 +17989,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -17990,7 +17999,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -18000,7 +18009,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -18010,7 +18019,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -18020,7 +18029,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -18030,7 +18039,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -21045,7 +21054,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21114,7 +21123,9 @@
       <c r="E3" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -21170,7 +21181,9 @@
       <c r="E7" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -21212,7 +21225,9 @@
       <c r="E10" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Algorithms_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E4A79-0FEB-4C84-B3A4-D68D7E4293BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AA394-86F3-4881-B4BB-04EE8A6FE541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="795" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1398">
   <si>
     <t>Title</t>
   </si>
@@ -4653,9 +4653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,8 +5595,12 @@
       <c r="B48" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="7">
+        <v>43916</v>
+      </c>
       <c r="E48" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5609,8 +5613,12 @@
       <c r="B49" t="s">
         <v>437</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="7">
+        <v>43916</v>
+      </c>
       <c r="E49" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5623,8 +5631,12 @@
       <c r="B50" t="s">
         <v>439</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="7">
+        <v>43916</v>
+      </c>
       <c r="E50" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5637,8 +5649,12 @@
       <c r="B51" t="s">
         <v>440</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="7">
+        <v>43916</v>
+      </c>
       <c r="E51" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6462,8 +6478,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AA394-86F3-4881-B4BB-04EE8A6FE541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEED97-D183-496B-BD2F-5B447146539B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1398">
   <si>
     <t>Title</t>
   </si>
@@ -4654,8 +4654,8 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,8 +5667,12 @@
       <c r="B52" t="s">
         <v>626</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="7">
+        <v>43916</v>
+      </c>
       <c r="E52" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5683,8 +5687,12 @@
       <c r="B53" t="s">
         <v>638</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="7">
+        <v>43916</v>
+      </c>
       <c r="E53" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5699,8 +5707,12 @@
       <c r="B54" t="s">
         <v>648</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="7">
+        <v>43916</v>
+      </c>
       <c r="E54" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5715,8 +5727,12 @@
       <c r="B55" t="s">
         <v>650</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="7">
+        <v>43916</v>
+      </c>
       <c r="E55" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5731,8 +5747,12 @@
       <c r="B56" t="s">
         <v>652</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="7">
+        <v>43916</v>
+      </c>
       <c r="E56" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5747,8 +5767,12 @@
       <c r="B57" t="s">
         <v>653</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="7">
+        <v>43916</v>
+      </c>
       <c r="E57" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5763,8 +5787,12 @@
       <c r="B58" t="s">
         <v>656</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D58" s="7">
+        <v>43916</v>
+      </c>
       <c r="E58" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5779,8 +5807,12 @@
       <c r="B59" t="s">
         <v>659</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="7">
+        <v>43916</v>
+      </c>
       <c r="E59" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5795,8 +5827,12 @@
       <c r="B60" t="s">
         <v>660</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D60" s="7">
+        <v>43916</v>
+      </c>
       <c r="E60" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5811,8 +5847,12 @@
       <c r="B61" t="s">
         <v>663</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D61" s="7">
+        <v>43916</v>
+      </c>
       <c r="E61" s="6" t="s">
         <v>1384</v>
       </c>
@@ -5827,8 +5867,12 @@
       <c r="B62" t="s">
         <v>664</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="7">
+        <v>43916</v>
+      </c>
       <c r="E62" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6479,7 +6523,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
@@ -10782,7 +10826,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEED97-D183-496B-BD2F-5B447146539B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E000C3-7E23-4161-8703-3963D58133B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Alg - hard" sheetId="4" r:id="rId4"/>
     <sheet name="Shell" sheetId="6" r:id="rId5"/>
     <sheet name="Concurrency" sheetId="7" r:id="rId6"/>
+    <sheet name="Progress" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alg - easy'!$A$1:$F$340</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1406">
   <si>
     <t>Title</t>
   </si>
@@ -4237,13 +4238,37 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Progrress</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Alg - easy</t>
+  </si>
+  <si>
+    <t>Alg - medium</t>
+  </si>
+  <si>
+    <t>Alg - hard</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4259,6 +4284,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4268,7 +4315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4302,11 +4349,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4337,9 +4444,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4653,9 +4767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,9 +6637,9 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" sqref="A1:E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7993,8 +8107,12 @@
       <c r="B90" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
+      <c r="C90" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D90" s="7">
+        <v>43915</v>
+      </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -8004,8 +8122,12 @@
       <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
+      <c r="C91" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="7">
+        <v>43915</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>342</v>
       </c>
@@ -10825,8 +10947,8 @@
   <dimension ref="A1:I702"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12306,8 +12428,12 @@
       <c r="B137" t="s">
         <v>480</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D137" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -12774,8 +12900,12 @@
       <c r="B179" t="s">
         <v>521</v>
       </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="7"/>
+      <c r="C179" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D179" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -14667,7 +14797,12 @@
       <c r="B358" t="s">
         <v>701</v>
       </c>
-      <c r="D358" s="4"/>
+      <c r="C358" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D358" s="7">
+        <v>43911</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
@@ -17913,7 +18048,7 @@
   <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -20996,7 +21131,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21114,7 +21249,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21122,7 +21257,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -21164,8 +21299,12 @@
       <c r="B2" t="s">
         <v>1394</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43915</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>1383</v>
       </c>
@@ -21178,8 +21317,12 @@
       <c r="B3" t="s">
         <v>1393</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43915</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>1383</v>
       </c>
@@ -21292,4 +21435,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
+  <dimension ref="B1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="15">
+        <f>COUNTA(SQL!C2:C102)/COUNT(SQL!A2:A102)</f>
+        <v>0.60396039603960394</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C4" s="15">
+        <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
+        <v>0.26843657817109146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C5" s="15">
+        <f>COUNTA('Alg - medium'!C2:C702)/COUNT('Alg - medium'!A2:A702)</f>
+        <v>1.4265335235378032E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C6" s="15">
+        <f>COUNTA('Alg - hard'!C2:C289)/COUNT('Alg - hard'!A2:A289)</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C7" s="15">
+        <f>COUNTA(Shell!C2:C5)/COUNT(Shell!A2:A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C8" s="17">
+        <f>COUNTA(Concurrency!C2:C10)/COUNT(Concurrency!A2:A10)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCCCCB61-FC31-4B6B-86D8-AF7E05C3A3E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCCCCB61-FC31-4B6B-86D8-AF7E05C3A3E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E000C3-7E23-4161-8703-3963D58133B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD099556-5081-4C06-959D-38246DEF40B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -4262,13 +4262,16 @@
   </si>
   <si>
     <t>Concurrency</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4293,13 +4296,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4413,7 +4409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4444,12 +4440,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21439,10 +21452,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21451,67 +21464,104 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>1398</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
         <v>1400</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="19">
         <f>COUNTA(SQL!C2:C102)/COUNT(SQL!A2:A102)</f>
         <v>0.60396039603960394</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="D3" s="14">
+        <f>COUNTA(SQL!C2:C102)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>1401</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="19">
         <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
         <v>0.26843657817109146</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="D4" s="14">
+        <f>COUNTA('Alg - easy'!C2:C340)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>1402</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="19">
         <f>COUNTA('Alg - medium'!C2:C702)/COUNT('Alg - medium'!A2:A702)</f>
         <v>1.4265335235378032E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="D5" s="14">
+        <f>COUNTA('Alg - medium'!C2:C702)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
         <v>1403</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="19">
         <f>COUNTA('Alg - hard'!C2:C289)/COUNT('Alg - hard'!A2:A289)</f>
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="D6" s="14">
+        <f>COUNTA('Alg - hard'!C2:C289)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
         <v>1404</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="19">
         <f>COUNTA(Shell!C2:C5)/COUNT(Shell!A2:A5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+      <c r="D7" s="14">
+        <f>COUNTA(Shell!C2:C5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="18" t="s">
         <v>1405</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="20">
         <f>COUNTA(Concurrency!C2:C10)/COUNT(Concurrency!A2:A10)</f>
         <v>0.22222222222222221</v>
+      </c>
+      <c r="D8" s="15">
+        <f>COUNTA(Concurrency!C2:C10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="16">
+        <f>AVERAGE(C3:C8)</f>
+        <v>0.35205945898175295</v>
+      </c>
+      <c r="D10" s="16">
+        <f>SUM(D3:D8)/1392</f>
+        <v>0.12140804597701149</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD099556-5081-4C06-959D-38246DEF40B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307E384-5BDF-4941-B7DF-FEFBA9D71D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -6650,9 +6650,9 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:E340"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8152,8 +8152,12 @@
       <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
+      <c r="C92" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="7">
+        <v>43917</v>
+      </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -8163,8 +8167,12 @@
       <c r="B93" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
+      <c r="C93" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="7">
+        <v>43917</v>
+      </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -8174,8 +8182,12 @@
       <c r="B94" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D94" s="7">
+        <v>43917</v>
+      </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -21144,7 +21156,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21261,8 +21273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980B35B-94CC-442B-9413-90B22115DF3F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21454,8 +21466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21495,11 +21507,11 @@
       </c>
       <c r="C4" s="19">
         <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
-        <v>0.26843657817109146</v>
+        <v>0.27728613569321536</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
@@ -21554,14 +21566,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f>SUM($D$3:$D$8)</f>
+        <v>172</v>
+      </c>
+    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="16">
-        <f>AVERAGE(C3:C8)</f>
-        <v>0.35205945898175295</v>
-      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="16">
-        <f>SUM(D3:D8)/1392</f>
-        <v>0.12140804597701149</v>
+        <f>SUM($D$3:$D$8)/1392</f>
+        <v>0.1235632183908046</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307E384-5BDF-4941-B7DF-FEFBA9D71D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80318457-4821-4A78-BCE3-F6FDDBECB87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-27630" yWindow="1635" windowWidth="21600" windowHeight="11145" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -6650,9 +6650,9 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomLeft" activeCell="D98" activeCellId="1" sqref="D98:D100 D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8197,8 +8197,12 @@
       <c r="B95" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
+      <c r="C95" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="7">
+        <v>43917</v>
+      </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -8208,8 +8212,12 @@
       <c r="B96" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
+      <c r="C96" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D96" s="7">
+        <v>43917</v>
+      </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,8 +8227,12 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D97" s="7">
+        <v>43917</v>
+      </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,8 +8242,12 @@
       <c r="B98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="7"/>
+      <c r="C98" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="7">
+        <v>43917</v>
+      </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -8241,9 +8257,15 @@
       <c r="B99" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="2"/>
+      <c r="C99" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" s="7">
+        <v>43917</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -8252,8 +8274,12 @@
       <c r="B100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D100" s="7">
+        <v>43917</v>
+      </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -21273,7 +21299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980B35B-94CC-442B-9413-90B22115DF3F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21466,8 +21492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21507,11 +21533,11 @@
       </c>
       <c r="C4" s="19">
         <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
-        <v>0.27728613569321536</v>
+        <v>0.29498525073746312</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
@@ -21569,14 +21595,14 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
       <c r="D10" s="16">
         <f>SUM($D$3:$D$8)/1392</f>
-        <v>0.1235632183908046</v>
+        <v>0.1278735632183908</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80318457-4821-4A78-BCE3-F6FDDBECB87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6261AC-A899-4C8A-8EB3-312A34B79847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1635" windowWidth="21600" windowHeight="11145" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="1170" yWindow="2085" windowWidth="21600" windowHeight="11145" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -6649,10 +6649,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D98" activeCellId="1" sqref="D98:D100 D98"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>389</v>
       </c>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>392</v>
       </c>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>401</v>
       </c>
@@ -8263,11 +8263,11 @@
       <c r="D99" s="7">
         <v>43917</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>404</v>
       </c>
@@ -8282,18 +8282,22 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>405</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" s="7">
+        <v>43917</v>
+      </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>408</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>409</v>
       </c>
@@ -8317,7 +8321,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>412</v>
       </c>
@@ -8328,7 +8332,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>414</v>
       </c>
@@ -8339,7 +8343,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>415</v>
       </c>
@@ -8350,7 +8354,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>422</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>434</v>
       </c>
@@ -8374,7 +8378,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>437</v>
       </c>
@@ -8385,7 +8389,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>441</v>
       </c>
@@ -8396,7 +8400,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>443</v>
       </c>
@@ -8407,7 +8411,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>447</v>
       </c>
@@ -21492,7 +21496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -21533,11 +21537,11 @@
       </c>
       <c r="C4" s="19">
         <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
-        <v>0.29498525073746312</v>
+        <v>0.29793510324483774</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
@@ -21595,14 +21599,14 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
       <c r="D10" s="16">
         <f>SUM($D$3:$D$8)/1392</f>
-        <v>0.1278735632183908</v>
+        <v>0.12859195402298851</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6261AC-A899-4C8A-8EB3-312A34B79847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D353B2-8272-4118-BB9A-7B56D2970552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2085" windowWidth="21600" windowHeight="11145" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -6649,20 +6649,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8935,9 +8937,12 @@
       <c r="B158" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="7">
+        <v>43918</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -18103,8 +18108,8 @@
   <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21494,20 +21499,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>1398</v>
       </c>
@@ -21517,96 +21523,123 @@
       <c r="D2" s="12" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E2" s="12" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>1400</v>
       </c>
       <c r="C3" s="19">
-        <f>COUNTA(SQL!C2:C102)/COUNT(SQL!A2:A102)</f>
+        <f>COUNTA(SQL!$C$2:$C$102)/COUNT(SQL!$A$2:$A$102)</f>
         <v>0.60396039603960394</v>
       </c>
       <c r="D3" s="14">
         <f>COUNTA(SQL!C2:C102)</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E3" s="14">
+        <f>COUNT(SQL!A2:A102)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>1401</v>
       </c>
       <c r="C4" s="19">
-        <f>COUNTA('Alg - easy'!C2:C340)/COUNT('Alg - easy'!A2:A340)</f>
-        <v>0.29793510324483774</v>
+        <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
+        <v>0.30088495575221241</v>
       </c>
       <c r="D4" s="14">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="E4" s="14">
+        <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1402</v>
       </c>
       <c r="C5" s="19">
-        <f>COUNTA('Alg - medium'!C2:C702)/COUNT('Alg - medium'!A2:A702)</f>
+        <f>COUNTA('Alg - medium'!$C$2:$C$702)/COUNT('Alg - medium'!$A$2:$A$702)</f>
         <v>1.4265335235378032E-2</v>
       </c>
       <c r="D5" s="14">
         <f>COUNTA('Alg - medium'!C2:C702)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E5" s="14">
+        <f>COUNT('Alg - medium'!$A$2:$A$702)</f>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>1403</v>
       </c>
       <c r="C6" s="19">
-        <f>COUNTA('Alg - hard'!C2:C289)/COUNT('Alg - hard'!A2:A289)</f>
+        <f>COUNTA('Alg - hard'!$C$2:$C$289)/COUNT('Alg - hard'!$A$2:$A$289)</f>
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D6" s="14">
         <f>COUNTA('Alg - hard'!C2:C289)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="14">
+        <f>COUNT('Alg - hard'!$A$2:$A$289)</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>1404</v>
       </c>
       <c r="C7" s="19">
-        <f>COUNTA(Shell!C2:C5)/COUNT(Shell!A2:A5)</f>
+        <f>COUNTA(Shell!$C$2:$C$5)/COUNT(Shell!$A$2:$A$5)</f>
         <v>1</v>
       </c>
       <c r="D7" s="14">
         <f>COUNTA(Shell!C2:C5)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="14">
+        <f>COUNT(Shell!$A$2:$A$5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="18" t="s">
         <v>1405</v>
       </c>
       <c r="C8" s="20">
-        <f>COUNTA(Concurrency!C2:C10)/COUNT(Concurrency!A2:A10)</f>
+        <f>COUNTA(Concurrency!$C$2:$C$10)/COUNT(Concurrency!$A$2:$A$10)</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D8" s="15">
         <f>COUNTA(Concurrency!C2:C10)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="15">
+        <f>COUNT(Concurrency!$A$2:$A$10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
       <c r="D10" s="16">
-        <f>SUM($D$3:$D$8)/1392</f>
-        <v>0.12859195402298851</v>
+        <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
+        <v>0.12482662968099861</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D353B2-8272-4118-BB9A-7B56D2970552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EF476-D994-43FF-8117-D24FDA8453B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1407">
   <si>
     <t>Title</t>
   </si>
@@ -4311,25 +4311,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4409,7 +4396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4433,34 +4420,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4778,11 +4758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4775,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -4814,14 +4794,8 @@
       <c r="F1" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
@@ -4839,7 +4813,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176</v>
       </c>
@@ -4857,7 +4831,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>181</v>
       </c>
@@ -4875,7 +4849,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>182</v>
       </c>
@@ -4893,7 +4867,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>183</v>
       </c>
@@ -4911,7 +4885,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>196</v>
       </c>
@@ -4929,7 +4903,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>197</v>
       </c>
@@ -4947,7 +4921,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>511</v>
       </c>
@@ -4967,7 +4941,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>512</v>
       </c>
@@ -4987,7 +4961,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>577</v>
       </c>
@@ -5007,7 +4981,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>584</v>
       </c>
@@ -5027,7 +5001,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>586</v>
       </c>
@@ -5045,7 +5019,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>595</v>
       </c>
@@ -5063,7 +5037,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>596</v>
       </c>
@@ -5081,7 +5055,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>597</v>
       </c>
@@ -6647,12 +6621,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5BF485-B56F-4CCC-A651-28A095BEA605}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6667,7 +6641,7 @@
     <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -6686,17 +6660,8 @@
       <c r="F1" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>339</v>
-      </c>
-      <c r="I1" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6711,7 +6676,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -6726,7 +6691,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6741,7 +6706,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -6756,7 +6721,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -6771,7 +6736,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -6786,7 +6751,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -6804,7 +6769,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -6819,7 +6784,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -6834,7 +6799,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -6849,7 +6814,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -6864,7 +6829,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38</v>
       </c>
@@ -6879,7 +6844,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
@@ -6894,7 +6859,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>58</v>
       </c>
@@ -6909,7 +6874,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>66</v>
       </c>
@@ -11004,11 +10969,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED9B6B-6D66-4146-B798-5192317A40CB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I702"/>
+  <dimension ref="A1:F702"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E702"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11021,7 +10986,7 @@
     <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -11040,17 +11005,8 @@
       <c r="F1" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>701</v>
-      </c>
-      <c r="I1" s="2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11067,7 +11023,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11077,7 +11033,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -11087,7 +11043,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -11101,7 +11057,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -11111,7 +11067,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -11121,7 +11077,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -11131,7 +11087,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -11141,7 +11097,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -11151,7 +11107,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -11165,7 +11121,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -11175,7 +11131,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -11192,7 +11148,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -11206,7 +11162,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -11216,7 +11172,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -18105,11 +18061,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE74A9-7932-4735-9802-E99020CE6C10}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18121,7 +18077,7 @@
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -18140,17 +18096,8 @@
       <c r="F1" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>288</v>
-      </c>
-      <c r="I1">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -18164,7 +18111,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -18174,7 +18121,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -18184,7 +18131,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -18194,7 +18141,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -18204,7 +18151,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -18214,7 +18161,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -18224,7 +18171,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -18234,7 +18181,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42</v>
       </c>
@@ -18244,7 +18191,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -18254,17 +18201,21 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>1324</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -18274,7 +18225,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
@@ -18284,7 +18235,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -18294,7 +18245,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -21188,10 +21139,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37497FFA-B857-47FD-8E81-E2547608F60C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21201,7 +21152,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -21220,14 +21171,8 @@
       <c r="F1" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>193</v>
       </c>
@@ -21245,7 +21190,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>195</v>
       </c>
@@ -21263,7 +21208,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>192</v>
       </c>
@@ -21281,7 +21226,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>194</v>
       </c>
@@ -21306,10 +21251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980B35B-94CC-442B-9413-90B22115DF3F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21322,7 +21267,7 @@
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>341</v>
       </c>
@@ -21341,18 +21286,8 @@
       <c r="F1" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H1" s="9">
-        <v>9</v>
-      </c>
-      <c r="I1" s="10">
-        <f>SUM(SQL!H1,'Alg - easy'!H1,'Alg - medium'!H1,'Alg - hard'!H1,Shell!H1,Concurrency!H1)</f>
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1114</v>
       </c>
@@ -21370,7 +21305,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1279</v>
       </c>
@@ -21390,7 +21325,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1115</v>
       </c>
@@ -21404,7 +21339,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1116</v>
       </c>
@@ -21418,7 +21353,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1117</v>
       </c>
@@ -21432,7 +21367,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1188</v>
       </c>
@@ -21448,7 +21383,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1195</v>
       </c>
@@ -21462,7 +21397,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1226</v>
       </c>
@@ -21476,7 +21411,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1242</v>
       </c>
@@ -21501,8 +21436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21514,117 +21449,117 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>1400</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <f>COUNTA(SQL!$C$2:$C$102)/COUNT(SQL!$A$2:$A$102)</f>
         <v>0.60396039603960394</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <f>COUNTA(SQL!C2:C102)</f>
         <v>61</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <f>COUNT(SQL!A2:A102)</f>
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
         <v>0.30088495575221241</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
         <v>102</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
         <v>339</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>1402</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <f>COUNTA('Alg - medium'!$C$2:$C$702)/COUNT('Alg - medium'!$A$2:$A$702)</f>
         <v>1.4265335235378032E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <f>COUNTA('Alg - medium'!C2:C702)</f>
         <v>10</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f>COUNT('Alg - medium'!$A$2:$A$702)</f>
         <v>701</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <f>COUNTA('Alg - hard'!$C$2:$C$289)/COUNT('Alg - hard'!$A$2:$A$289)</f>
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D6" s="14">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D6" s="11">
         <f>COUNTA('Alg - hard'!C2:C289)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
         <f>COUNT('Alg - hard'!$A$2:$A$289)</f>
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <f>COUNTA(Shell!$C$2:$C$5)/COUNT(Shell!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <f>COUNTA(Shell!C2:C5)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <f>COUNT(Shell!$A$2:$A$5)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>1405</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <f>COUNTA(Concurrency!$C$2:$C$10)/COUNT(Concurrency!$A$2:$A$10)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f>COUNTA(Concurrency!C2:C10)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <f>COUNT(Concurrency!$A$2:$A$10)</f>
         <v>9</v>
       </c>
@@ -21632,14 +21567,14 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.12482662968099861</v>
+        <v>0.12552011095700416</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EF476-D994-43FF-8117-D24FDA8453B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84860AD7-5EE7-43DB-82C7-1861B953E3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - hard'!$C$1:$D$289</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - medium'!$C$1:$D$702</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concurrency!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="1408">
   <si>
     <t>Title</t>
   </si>
@@ -4265,6 +4265,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Capital Gain/Loss</t>
   </si>
 </sst>
 </file>
@@ -4758,11 +4761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O83" sqref="O82:O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5988,8 +5991,12 @@
       <c r="B63" t="s">
         <v>670</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="7">
+        <v>43919</v>
+      </c>
       <c r="E63" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6381,24 +6388,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>185</v>
+        <v>1393</v>
       </c>
       <c r="B88" t="s">
-        <v>1297</v>
+        <v>1407</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>1384</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>1335</v>
+        <v>1297</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -6409,26 +6418,24 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>569</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>1229</v>
+        <v>1335</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -6441,10 +6448,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -6457,40 +6464,40 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="B93" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="F93" s="8"/>
+      <c r="F93" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B94" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B95" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -6503,10 +6510,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1097</v>
+        <v>618</v>
       </c>
       <c r="B96" t="s">
-        <v>1099</v>
+        <v>1220</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -6519,10 +6526,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1127</v>
+        <v>1097</v>
       </c>
       <c r="B97" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -6535,10 +6542,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1159</v>
+        <v>1127</v>
       </c>
       <c r="B98" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -6551,10 +6558,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1194</v>
+        <v>1159</v>
       </c>
       <c r="B99" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -6567,10 +6574,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="B100" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -6583,10 +6590,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1336</v>
+        <v>1225</v>
       </c>
       <c r="B101" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -6599,10 +6606,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1369</v>
+        <v>1336</v>
       </c>
       <c r="B102" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -6610,6 +6617,22 @@
         <v>1385</v>
       </c>
       <c r="F102" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1369</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>342</v>
       </c>
     </row>
@@ -21437,7 +21460,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21467,16 +21490,16 @@
         <v>1400</v>
       </c>
       <c r="C3" s="16">
-        <f>COUNTA(SQL!$C$2:$C$102)/COUNT(SQL!$A$2:$A$102)</f>
-        <v>0.60396039603960394</v>
+        <f>COUNTA(SQL!$C$2:$C$104)/COUNT(SQL!$A$2:$A$104)</f>
+        <v>0.60784313725490191</v>
       </c>
       <c r="D3" s="11">
-        <f>COUNTA(SQL!C2:C102)</f>
-        <v>61</v>
+        <f>COUNTA(SQL!C2:C104)</f>
+        <v>62</v>
       </c>
       <c r="E3" s="11">
-        <f>COUNT(SQL!A2:A102)</f>
-        <v>101</v>
+        <f>COUNT(SQL!$A$2:$A$103)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -21567,14 +21590,18 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM(E3:E8)</f>
+        <v>1443</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.12552011095700416</v>
+        <v>0.12612612612612611</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84860AD7-5EE7-43DB-82C7-1861B953E3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558AFFC-00B4-42DE-B4A5-75F25B0B8B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -4268,6 +4268,12 @@
   </si>
   <si>
     <t>Capital Gain/Loss</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
   </si>
 </sst>
 </file>
@@ -4763,7 +4769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="O82:O83"/>
     </sheetView>
@@ -6646,10 +6652,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F247" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,7 +6665,7 @@
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -9846,7 +9852,7 @@
       <c r="D240" s="7"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>937</v>
       </c>
@@ -9857,7 +9863,7 @@
       <c r="D241" s="7"/>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>938</v>
       </c>
@@ -9868,7 +9874,7 @@
       <c r="D242" s="7"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>941</v>
       </c>
@@ -9879,7 +9885,7 @@
       <c r="D243" s="7"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>942</v>
       </c>
@@ -9890,7 +9896,7 @@
       <c r="D244" s="7"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>944</v>
       </c>
@@ -9901,7 +9907,7 @@
       <c r="D245" s="7"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>949</v>
       </c>
@@ -9912,18 +9918,25 @@
       <c r="D246" s="7"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>953</v>
       </c>
       <c r="B247" t="s">
         <v>239</v>
       </c>
-      <c r="C247" s="6"/>
-      <c r="D247" s="7"/>
+      <c r="C247" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D247" s="7">
+        <v>43919</v>
+      </c>
       <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>961</v>
       </c>
@@ -9934,7 +9947,7 @@
       <c r="D248" s="7"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>965</v>
       </c>
@@ -9945,7 +9958,7 @@
       <c r="D249" s="7"/>
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>970</v>
       </c>
@@ -9956,7 +9969,7 @@
       <c r="D250" s="7"/>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>976</v>
       </c>
@@ -9967,7 +9980,7 @@
       <c r="D251" s="7"/>
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>977</v>
       </c>
@@ -9978,7 +9991,7 @@
       <c r="D252" s="7"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>985</v>
       </c>
@@ -9989,7 +10002,7 @@
       <c r="D253" s="7"/>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>989</v>
       </c>
@@ -10000,7 +10013,7 @@
       <c r="D254" s="7"/>
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>993</v>
       </c>
@@ -10011,7 +10024,7 @@
       <c r="D255" s="7"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>994</v>
       </c>
@@ -10996,7 +11009,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11006,7 +11019,7 @@
     <col min="3" max="3" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11205,7 +11218,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
@@ -11215,7 +11228,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>33</v>
       </c>
@@ -11225,7 +11238,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -11235,7 +11248,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36</v>
       </c>
@@ -11245,7 +11258,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39</v>
       </c>
@@ -11255,7 +11268,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>40</v>
       </c>
@@ -11265,7 +11278,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43</v>
       </c>
@@ -11275,7 +11288,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>46</v>
       </c>
@@ -11289,7 +11302,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>47</v>
       </c>
@@ -11299,7 +11312,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>48</v>
       </c>
@@ -11309,7 +11322,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>49</v>
       </c>
@@ -11319,7 +11332,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
@@ -11329,7 +11342,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>54</v>
       </c>
@@ -11339,17 +11352,24 @@
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43919</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -11359,7 +11379,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>59</v>
       </c>
@@ -18088,7 +18108,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18236,6 +18256,9 @@
       </c>
       <c r="D12" s="7">
         <v>43919</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -21508,11 +21531,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.30088495575221241</v>
+        <v>0.30383480825958703</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21525,11 +21548,11 @@
       </c>
       <c r="C5" s="16">
         <f>COUNTA('Alg - medium'!$C$2:$C$702)/COUNT('Alg - medium'!$A$2:$A$702)</f>
-        <v>1.4265335235378032E-2</v>
+        <v>1.5691868758915834E-2</v>
       </c>
       <c r="D5" s="11">
         <f>COUNTA('Alg - medium'!C2:C702)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11">
         <f>COUNT('Alg - medium'!$A$2:$A$702)</f>
@@ -21590,7 +21613,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21601,7 +21624,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.12612612612612611</v>
+        <v>0.12751212751212751</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558AFFC-00B4-42DE-B4A5-75F25B0B8B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66074454-54FF-4BFF-ADCE-54295AA12371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -6653,9 +6653,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F247" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8300,8 +8300,12 @@
       <c r="B102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="7"/>
+      <c r="C102" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D102" s="7">
+        <v>43921</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>342</v>
       </c>
@@ -21531,11 +21535,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.30383480825958703</v>
+        <v>0.30678466076696165</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21613,7 +21617,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21624,7 +21628,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.12751212751212751</v>
+        <v>0.12820512820512819</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66074454-54FF-4BFF-ADCE-54295AA12371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BA424-F78E-4564-8A50-081ECF2332D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="29580" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -4769,9 +4769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O83" sqref="O82:O83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6652,7 +6652,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BA424-F78E-4564-8A50-081ECF2332D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A4F99-B451-4B17-B90B-98D62D82D4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="29580" yWindow="1230" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -4769,9 +4769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:A88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" activeCellId="1" sqref="E74:E88 O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,8 +6015,12 @@
       <c r="B64" t="s">
         <v>871</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="7">
+        <v>43927</v>
+      </c>
       <c r="E64" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6031,8 +6035,12 @@
       <c r="B65" t="s">
         <v>885</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" s="7">
+        <v>43927</v>
+      </c>
       <c r="E65" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6047,8 +6055,12 @@
       <c r="B66" t="s">
         <v>888</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="7">
+        <v>43927</v>
+      </c>
       <c r="E66" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6063,8 +6075,12 @@
       <c r="B67" t="s">
         <v>897</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D67" s="7">
+        <v>43927</v>
+      </c>
       <c r="E67" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6079,8 +6095,12 @@
       <c r="B68" t="s">
         <v>903</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="7">
+        <v>43927</v>
+      </c>
       <c r="E68" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6095,8 +6115,12 @@
       <c r="B69" t="s">
         <v>907</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="7">
+        <v>43927</v>
+      </c>
       <c r="E69" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6111,8 +6135,12 @@
       <c r="B70" t="s">
         <v>914</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" s="7">
+        <v>43927</v>
+      </c>
       <c r="E70" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6127,8 +6155,12 @@
       <c r="B71" t="s">
         <v>918</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="7">
+        <v>43927</v>
+      </c>
       <c r="E71" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6143,8 +6175,12 @@
       <c r="B72" t="s">
         <v>927</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" s="7">
+        <v>43927</v>
+      </c>
       <c r="E72" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6159,8 +6195,12 @@
       <c r="B73" t="s">
         <v>932</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="7">
+        <v>43927</v>
+      </c>
       <c r="E73" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6652,10 +6692,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8317,8 +8357,12 @@
       <c r="B103" t="s">
         <v>97</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" s="7">
+        <v>43925</v>
+      </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -21518,11 +21562,11 @@
       </c>
       <c r="C3" s="16">
         <f>COUNTA(SQL!$C$2:$C$104)/COUNT(SQL!$A$2:$A$104)</f>
-        <v>0.60784313725490191</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="D3" s="11">
         <f>COUNTA(SQL!C2:C104)</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E3" s="11">
         <f>COUNT(SQL!$A$2:$A$103)</f>
@@ -21535,11 +21579,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.30678466076696165</v>
+        <v>0.30973451327433627</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21617,7 +21661,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21628,7 +21672,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.12820512820512819</v>
+        <v>0.13582813582813583</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A4F99-B451-4B17-B90B-98D62D82D4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582712F7-5D82-4238-AF4F-E418EE727C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1230" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="29925" yWindow="2790" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -6693,9 +6693,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,8 +8372,12 @@
       <c r="B104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="7">
+        <v>43927</v>
+      </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -8383,8 +8387,12 @@
       <c r="B105" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
+      <c r="C105" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D105" s="7">
+        <v>43927</v>
+      </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -8394,8 +8402,12 @@
       <c r="B106" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="7"/>
+      <c r="C106" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" s="7">
+        <v>43927</v>
+      </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -21579,11 +21591,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.30973451327433627</v>
+        <v>0.31858407079646017</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21661,7 +21673,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21672,7 +21684,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.13582813582813583</v>
+        <v>0.13790713790713791</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582712F7-5D82-4238-AF4F-E418EE727C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F26BB-6D6B-4AB1-B754-36EFF7B8D241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="2790" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -6693,9 +6693,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8417,8 +8417,12 @@
       <c r="B107" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="C107" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" s="7">
+        <v>43927</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>342</v>
       </c>
@@ -8430,8 +8434,12 @@
       <c r="B108" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
+      <c r="C108" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="7">
+        <v>43927</v>
+      </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -21542,7 +21550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -21591,11 +21599,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.31858407079646017</v>
+        <v>0.32448377581120946</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21673,7 +21681,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21684,7 +21692,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.13790713790713791</v>
+        <v>0.1392931392931393</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F26BB-6D6B-4AB1-B754-36EFF7B8D241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853236E-A6CE-4304-B482-D92CDCE5E8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -4770,8 +4770,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" activeCellId="1" sqref="E74:E88 O11"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,9 +6693,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109:A125"/>
+      <selection pane="bottomLeft" activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8449,8 +8449,12 @@
       <c r="B109" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="7"/>
+      <c r="C109" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D109" s="7">
+        <v>43927</v>
+      </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -21551,7 +21555,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21599,11 +21603,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.32448377581120946</v>
+        <v>0.32743362831858408</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21681,7 +21685,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21692,7 +21696,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.1392931392931393</v>
+        <v>0.13998613998613998</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2853236E-A6CE-4304-B482-D92CDCE5E8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE347242-B164-4D93-8BE8-D3BD20614113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1410">
   <si>
     <t>Title</t>
   </si>
@@ -4769,9 +4769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6215,8 +6215,12 @@
       <c r="B74" t="s">
         <v>935</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="C74" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="7">
+        <v>43930</v>
+      </c>
       <c r="E74" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6231,8 +6235,12 @@
       <c r="B75" t="s">
         <v>940</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="7">
+        <v>43930</v>
+      </c>
       <c r="E75" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6247,8 +6255,12 @@
       <c r="B76" t="s">
         <v>948</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="7">
+        <v>43930</v>
+      </c>
       <c r="E76" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6263,8 +6275,12 @@
       <c r="B77" t="s">
         <v>954</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="7">
+        <v>43930</v>
+      </c>
       <c r="E77" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6279,8 +6295,12 @@
       <c r="B78" t="s">
         <v>955</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="7">
+        <v>43930</v>
+      </c>
       <c r="E78" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6295,8 +6315,12 @@
       <c r="B79" t="s">
         <v>958</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D79" s="7">
+        <v>43930</v>
+      </c>
       <c r="E79" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6311,8 +6335,12 @@
       <c r="B80" t="s">
         <v>987</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" s="7">
+        <v>43930</v>
+      </c>
       <c r="E80" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6327,8 +6355,12 @@
       <c r="B81" t="s">
         <v>991</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="7">
+        <v>43930</v>
+      </c>
       <c r="E81" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6343,8 +6375,12 @@
       <c r="B82" t="s">
         <v>998</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="7">
+        <v>43930</v>
+      </c>
       <c r="E82" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6359,8 +6395,12 @@
       <c r="B83" t="s">
         <v>1009</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="7">
+        <v>43930</v>
+      </c>
       <c r="E83" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6375,8 +6415,12 @@
       <c r="B84" t="s">
         <v>1016</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="7">
+        <v>43930</v>
+      </c>
       <c r="E84" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6391,8 +6435,12 @@
       <c r="B85" t="s">
         <v>1025</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="7">
+        <v>43930</v>
+      </c>
       <c r="E85" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6407,8 +6455,12 @@
       <c r="B86" t="s">
         <v>1032</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="7">
+        <v>43930</v>
+      </c>
       <c r="E86" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6423,8 +6475,12 @@
       <c r="B87" t="s">
         <v>1037</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" s="7">
+        <v>43930</v>
+      </c>
       <c r="E87" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6439,8 +6495,12 @@
       <c r="B88" t="s">
         <v>1407</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="7">
+        <v>43930</v>
+      </c>
       <c r="E88" s="6" t="s">
         <v>1384</v>
       </c>
@@ -6692,10 +6752,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J124" sqref="J124"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8464,8 +8524,12 @@
       <c r="B110" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="7"/>
+      <c r="C110" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D110" s="7">
+        <v>43930</v>
+      </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -8475,8 +8539,12 @@
       <c r="B111" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="7"/>
+      <c r="C111" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" s="7">
+        <v>43930</v>
+      </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,8 +8554,12 @@
       <c r="B112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="7"/>
+      <c r="C112" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D112" s="7">
+        <v>43930</v>
+      </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -21555,7 +21627,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21586,11 +21658,11 @@
       </c>
       <c r="C3" s="16">
         <f>COUNTA(SQL!$C$2:$C$104)/COUNT(SQL!$A$2:$A$104)</f>
-        <v>0.70588235294117652</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="D3" s="11">
         <f>COUNTA(SQL!C2:C104)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E3" s="11">
         <f>COUNT(SQL!$A$2:$A$103)</f>
@@ -21603,11 +21675,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.32743362831858408</v>
+        <v>0.33628318584070799</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -21685,7 +21757,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -21696,7 +21768,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.13998613998613998</v>
+        <v>0.15246015246015246</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE347242-B164-4D93-8BE8-D3BD20614113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A016A14-3766-4333-BDB6-F4EABFC8D8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -4770,8 +4770,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,9 +6753,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C2:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A016A14-3766-4333-BDB6-F4EABFC8D8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681ACD3-DE86-491D-9F0B-FFFF342A533B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -4769,9 +4769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1778896C-4EE9-4416-8333-6F097E1C0ED8}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C88"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,8 +6752,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C112" sqref="C2:C112"/>
     </sheetView>
@@ -21627,7 +21627,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681ACD3-DE86-491D-9F0B-FFFF342A533B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A33E8-F737-4501-A8E3-FF50AA6ED1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -4770,8 +4770,8 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="A1:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,9 +6753,9 @@
   <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C2:C112"/>
+      <selection pane="bottomLeft" sqref="A1:F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GitHub\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624CF63-17BE-49CC-8963-84B0846472F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411FD6B-9D13-4D63-8777-F30D5B5B3DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1412">
   <si>
     <t>Title</t>
   </si>
@@ -4791,8 +4791,8 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,10 +6806,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J218" sqref="J218"/>
+      <selection pane="bottomLeft" activeCell="J247" sqref="J247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8751,8 +8751,12 @@
       <c r="B113" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D113" s="7">
+        <v>43933</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="G113" s="18"/>
     </row>
@@ -9132,8 +9136,12 @@
       <c r="B144" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="7"/>
+      <c r="C144" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="7">
+        <v>43933</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="G144" s="18"/>
     </row>
@@ -9439,8 +9447,12 @@
       <c r="B169" t="s">
         <v>162</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="7"/>
+      <c r="C169" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D169" s="7">
+        <v>43933</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="G169" s="18" t="s">
         <v>1411</v>
@@ -9585,8 +9597,12 @@
       <c r="B181" t="s">
         <v>174</v>
       </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="7"/>
+      <c r="C181" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D181" s="7">
+        <v>43933</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="G181" s="18"/>
     </row>
@@ -9909,8 +9925,12 @@
       <c r="B207" t="s">
         <v>199</v>
       </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="7"/>
+      <c r="C207" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D207" s="7">
+        <v>43933</v>
+      </c>
       <c r="E207" s="2"/>
       <c r="G207" s="18"/>
     </row>
@@ -9933,8 +9953,12 @@
       <c r="B209" t="s">
         <v>201</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="7"/>
+      <c r="C209" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D209" s="7">
+        <v>43933</v>
+      </c>
       <c r="E209" s="2"/>
       <c r="G209" s="18"/>
     </row>
@@ -9957,8 +9981,12 @@
       <c r="B211" t="s">
         <v>203</v>
       </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="7"/>
+      <c r="C211" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D211" s="7">
+        <v>43933</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="G211" s="18" t="s">
         <v>1411</v>
@@ -10321,8 +10349,12 @@
       <c r="B241" t="s">
         <v>233</v>
       </c>
-      <c r="C241" s="6"/>
-      <c r="D241" s="7"/>
+      <c r="C241" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D241" s="7">
+        <v>43933</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="G241" s="18"/>
     </row>
@@ -11572,8 +11604,8 @@
   <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15449,7 +15481,12 @@
       <c r="B360" t="s">
         <v>702</v>
       </c>
-      <c r="D360" s="4"/>
+      <c r="C360" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D360" s="4">
+        <v>43932</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
@@ -22049,8 +22086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F6194-7210-4460-BABA-85EF8ADDC8AA}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22098,11 +22135,11 @@
       </c>
       <c r="C4" s="16">
         <f>COUNTA('Alg - easy'!$C$2:$C$340)/COUNT('Alg - easy'!$A$2:$A$340)</f>
-        <v>0.33628318584070799</v>
+        <v>0.35988200589970504</v>
       </c>
       <c r="D4" s="11">
         <f>COUNTA('Alg - easy'!C2:C340)</f>
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E4" s="11">
         <f>COUNT('Alg - easy'!$A$2:$A$340)</f>
@@ -22115,11 +22152,11 @@
       </c>
       <c r="C5" s="16">
         <f>COUNTA('Alg - medium'!$C$2:$C$702)/COUNT('Alg - medium'!$A$2:$A$702)</f>
-        <v>1.5691868758915834E-2</v>
+        <v>1.7118402282453638E-2</v>
       </c>
       <c r="D5" s="11">
         <f>COUNTA('Alg - medium'!C2:C702)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11">
         <f>COUNT('Alg - medium'!$A$2:$A$702)</f>
@@ -22180,7 +22217,7 @@
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <f>SUM($D$3:$D$8)</f>
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3">
         <f>SUM(E3:E8)</f>
@@ -22191,7 +22228,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13">
         <f>SUM($D$3:$D$8)/SUM(E3:E8)</f>
-        <v>0.15246015246015246</v>
+        <v>0.1586971586971587</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GH\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE07BF-8091-4070-87BA-0BB83AB035DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B90103-D201-4AEF-85FB-9FF9ED2505F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="8" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
+    <workbookView xWindow="29925" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="9" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL" sheetId="5" r:id="rId1"/>
+    <sheet name="SQL_old" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="Alg - easy" sheetId="1" r:id="rId3"/>
     <sheet name="Alg - medium" sheetId="2" r:id="rId4"/>
@@ -22,13 +22,16 @@
     <sheet name="Concurrency" sheetId="7" r:id="rId7"/>
     <sheet name="Progress" sheetId="8" r:id="rId8"/>
     <sheet name="All" sheetId="11" r:id="rId9"/>
+    <sheet name="SQL" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alg - easy'!$A$1:$F$340</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alg - hard'!$C$1:$D$289</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alg - medium'!$C$1:$D$702</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Concurrency!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL!$A$1:$F$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet3!$A$1:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SQL_old!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1568">
   <si>
     <t>Title</t>
   </si>
@@ -4741,6 +4744,15 @@
   </si>
   <si>
     <t xml:space="preserve">String Compression II    </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency  </t>
   </si>
 </sst>
 </file>
@@ -4748,7 +4760,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -4937,7 +4949,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5256,8 +5268,8 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A2:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7322,6 +7334,3922 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A72C50-125C-4FD4-AB66-7718CA6C40B1}">
+  <dimension ref="A1:C121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>511</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>512</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>534</v>
+      </c>
+      <c r="B17" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>550</v>
+      </c>
+      <c r="B18" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>647</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>571</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>574</v>
+      </c>
+      <c r="B22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>577</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>578</v>
+      </c>
+      <c r="B24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>579</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>580</v>
+      </c>
+      <c r="B26" t="s">
+        <v>652</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>584</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>585</v>
+      </c>
+      <c r="B28" t="s">
+        <v>655</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>586</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>596</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>597</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>601</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>607</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>608</v>
+      </c>
+      <c r="B37" t="s">
+        <v>659</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>610</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>612</v>
+      </c>
+      <c r="B39" t="s">
+        <v>662</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>613</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>614</v>
+      </c>
+      <c r="B41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>615</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>618</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>619</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>620</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>626</v>
+      </c>
+      <c r="B46" t="s">
+        <v>669</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>627</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>870</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1050</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1068</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1069</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>1070</v>
+      </c>
+      <c r="B52" t="s">
+        <v>884</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1075</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1076</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1077</v>
+      </c>
+      <c r="B55" t="s">
+        <v>887</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1082</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1083</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1084</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1097</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1098</v>
+      </c>
+      <c r="B60" t="s">
+        <v>896</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>902</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>906</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>913</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>917</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>926</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>931</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>934</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>939</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1179</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1193</v>
+      </c>
+      <c r="B77" t="s">
+        <v>947</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1194</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>953</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>954</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>957</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1251</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>986</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1280</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1285</v>
+      </c>
+      <c r="B89" t="s">
+        <v>997</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1294</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1308</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1321</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1327</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1336</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1341</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1350</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1355</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1364</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1369</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1378</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1384</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1393</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1398</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1407</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1421</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1435</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1440</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1445</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1454</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1459</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1468</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1479</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1484</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1495</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1501</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1511</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1517</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1527</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A32279-D75D-43F8-8E08-9A1EE2F10024}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F242"/>
+  <sheetViews>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B241"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>175</v>
+      </c>
+      <c r="F2">
+        <f>MOD(ROW(),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>176</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>177</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>178</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>181</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>182</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>183</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>184</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>185</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>196</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>197</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>262</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>511</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>512</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>534</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>550</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>637</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>569</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>570</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>647</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>571</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>574</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>649</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>577</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>578</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>651</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>579</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>580</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>652</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>584</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>585</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>655</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>586</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>595</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>596</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>597</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>601</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>602</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>658</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="1">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>603</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>607</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>608</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>659</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>610</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>612</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>662</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>613</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>614</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>663</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>615</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>618</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>619</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>620</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>626</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>669</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>627</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1045</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>870</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1050</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1068</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1069</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1070</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>884</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1075</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1076</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1077</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>887</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1082</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1083</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1084</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1097</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1098</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>896</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1107</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>902</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1112</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>906</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1113</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1126</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>913</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1127</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1132</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>917</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="2">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1141</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1142</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1148</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1149</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>926</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1158</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>931</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1159</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1164</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>934</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1173</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1174</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>939</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1179</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1193</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>947</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1194</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1204</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>953</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1205</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>954</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1211</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1212</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>957</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1225</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1241</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1251</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1264</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>986</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1270</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>990</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1280</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1285</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>997</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1294</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1303</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1308</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1321</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1322</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1327</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1336</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1341</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1350</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F242" si="3">MOD(ROW(),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1355</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1364</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1369</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1378</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1384</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1393</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1398</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1407</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1412</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1421</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1435</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1440</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1445</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1454</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1459</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1468</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1479</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1484</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1495</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1501</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1511</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1517</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1527</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F242" xr:uid="{8CED7E79-F1D3-41A6-A073-679436D9AF3D}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22654,15 +26582,15 @@
         <v>1399</v>
       </c>
       <c r="C3" s="16">
-        <f>COUNTA(SQL!$C$2:$C$104)/COUNT(SQL!$A$2:$A$104)</f>
+        <f>COUNTA(SQL_old!$C$2:$C$104)/COUNT(SQL_old!$A$2:$A$104)</f>
         <v>1</v>
       </c>
       <c r="D3" s="11">
-        <f>COUNTA(SQL!C2:C104)</f>
+        <f>COUNTA(SQL_old!C2:C104)</f>
         <v>102</v>
       </c>
       <c r="E3" s="11">
-        <f>COUNT(SQL!$A$2:$A$103)</f>
+        <f>COUNT(SQL_old!$A$2:$A$103)</f>
         <v>102</v>
       </c>
     </row>
@@ -22808,8 +26736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590CC3E-A857-40AD-9B26-F727CC539586}">
   <dimension ref="A1:C1532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
-      <selection sqref="A1:C1532"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetcode_progress.xlsx
+++ b/leetcode_progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NETDrive\GH\Leetcode_Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B90103-D201-4AEF-85FB-9FF9ED2505F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127E0603-630D-4C04-8628-6C6E762C482C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="9" xr2:uid="{0DDB31D7-1D30-4717-B711-DFE2CE19634F}"/>
   </bookViews>
@@ -38,18 +38,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1570">
   <si>
     <t>Title</t>
   </si>
@@ -4753,6 +4747,12 @@
   </si>
   <si>
     <t xml:space="preserve">Frequency  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Most Recent Three Orders </t>
+  </si>
+  <si>
+    <t>Fix Product Name Format</t>
   </si>
 </sst>
 </file>
@@ -7340,10 +7340,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A72C50-125C-4FD4-AB66-7718CA6C40B1}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D123" sqref="A1:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7352,7 +7352,7 @@
     <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1405</v>
       </c>
@@ -7362,8 +7362,11 @@
       <c r="C1" s="5" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>175</v>
       </c>
@@ -7373,8 +7376,11 @@
       <c r="C2" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>176</v>
       </c>
@@ -7384,8 +7390,11 @@
       <c r="C3" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>177</v>
       </c>
@@ -7395,8 +7404,11 @@
       <c r="C4" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>178</v>
       </c>
@@ -7406,8 +7418,11 @@
       <c r="C5" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>180</v>
       </c>
@@ -7417,8 +7432,11 @@
       <c r="C6" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>181</v>
       </c>
@@ -7428,8 +7446,11 @@
       <c r="C7" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>182</v>
       </c>
@@ -7439,8 +7460,11 @@
       <c r="C8" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>183</v>
       </c>
@@ -7450,8 +7474,11 @@
       <c r="C9" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>184</v>
       </c>
@@ -7461,8 +7488,11 @@
       <c r="C10" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>185</v>
       </c>
@@ -7472,8 +7502,11 @@
       <c r="C11" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>196</v>
       </c>
@@ -7483,8 +7516,11 @@
       <c r="C12" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>197</v>
       </c>
@@ -7494,8 +7530,11 @@
       <c r="C13" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>262</v>
       </c>
@@ -7505,8 +7544,11 @@
       <c r="C14" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>511</v>
       </c>
@@ -7516,8 +7558,11 @@
       <c r="C15" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>512</v>
       </c>
@@ -7527,8 +7572,11 @@
       <c r="C16" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>534</v>
       </c>
@@ -7538,8 +7586,11 @@
       <c r="C17" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>550</v>
       </c>
@@ -7549,8 +7600,11 @@
       <c r="C18" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>569</v>
       </c>
@@ -7560,8 +7614,11 @@
       <c r="C19" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>570</v>
       </c>
@@ -7571,8 +7628,11 @@
       <c r="C20" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>571</v>
       </c>
@@ -7582,8 +7642,11 @@
       <c r="C21" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>574</v>
       </c>
@@ -7593,8 +7656,11 @@
       <c r="C22" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>577</v>
       </c>
@@ -7604,8 +7670,11 @@
       <c r="C23" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>578</v>
       </c>
@@ -7615,8 +7684,11 @@
       <c r="C24" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>579</v>
       </c>
@@ -7626,8 +7698,11 @@
       <c r="C25" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>580</v>
       </c>
@@ -7637,8 +7712,11 @@
       <c r="C26" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>584</v>
       </c>
@@ -7648,8 +7726,11 @@
       <c r="C27" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>585</v>
       </c>
@@ -7659,8 +7740,11 @@
       <c r="C28" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>586</v>
       </c>
@@ -7670,8 +7754,11 @@
       <c r="C29" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>595</v>
       </c>
@@ -7681,8 +7768,11 @@
       <c r="C30" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>596</v>
       </c>
@@ -7692,8 +7782,11 @@
       <c r="C31" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>597</v>
       </c>
@@ -7703,8 +7796,11 @@
       <c r="C32" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>601</v>
       </c>
@@ -7714,8 +7810,11 @@
       <c r="C33" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>602</v>
       </c>
@@ -7725,8 +7824,11 @@
       <c r="C34" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>603</v>
       </c>
@@ -7736,8 +7838,11 @@
       <c r="C35" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>607</v>
       </c>
@@ -7747,8 +7852,11 @@
       <c r="C36" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>608</v>
       </c>
@@ -7758,8 +7866,11 @@
       <c r="C37" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>610</v>
       </c>
@@ -7769,8 +7880,11 @@
       <c r="C38" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>612</v>
       </c>
@@ -7780,8 +7894,11 @@
       <c r="C39" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>613</v>
       </c>
@@ -7791,8 +7908,11 @@
       <c r="C40" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>614</v>
       </c>
@@ -7802,8 +7922,11 @@
       <c r="C41" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>615</v>
       </c>
@@ -7813,8 +7936,11 @@
       <c r="C42" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>618</v>
       </c>
@@ -7824,8 +7950,11 @@
       <c r="C43" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>619</v>
       </c>
@@ -7835,8 +7964,11 @@
       <c r="C44" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>620</v>
       </c>
@@ -7846,8 +7978,11 @@
       <c r="C45" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>626</v>
       </c>
@@ -7857,8 +7992,11 @@
       <c r="C46" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>627</v>
       </c>
@@ -7868,8 +8006,11 @@
       <c r="C47" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1045</v>
       </c>
@@ -7879,8 +8020,11 @@
       <c r="C48" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1050</v>
       </c>
@@ -7890,8 +8034,11 @@
       <c r="C49" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1068</v>
       </c>
@@ -7901,8 +8048,11 @@
       <c r="C50" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1069</v>
       </c>
@@ -7912,8 +8062,11 @@
       <c r="C51" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>1070</v>
       </c>
@@ -7923,8 +8076,11 @@
       <c r="C52" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1075</v>
       </c>
@@ -7934,8 +8090,11 @@
       <c r="C53" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1076</v>
       </c>
@@ -7945,8 +8104,11 @@
       <c r="C54" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1077</v>
       </c>
@@ -7956,8 +8118,11 @@
       <c r="C55" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1082</v>
       </c>
@@ -7967,8 +8132,11 @@
       <c r="C56" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1083</v>
       </c>
@@ -7978,8 +8146,11 @@
       <c r="C57" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1084</v>
       </c>
@@ -7989,8 +8160,11 @@
       <c r="C58" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1097</v>
       </c>
@@ -8000,8 +8174,11 @@
       <c r="C59" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1098</v>
       </c>
@@ -8011,8 +8188,11 @@
       <c r="C60" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1107</v>
       </c>
@@ -8022,8 +8202,11 @@
       <c r="C61" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1112</v>
       </c>
@@ -8033,8 +8216,11 @@
       <c r="C62" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1113</v>
       </c>
@@ -8044,8 +8230,11 @@
       <c r="C63" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1126</v>
       </c>
@@ -8055,8 +8244,11 @@
       <c r="C64" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1127</v>
       </c>
@@ -8066,8 +8258,11 @@
       <c r="C65" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1132</v>
       </c>
@@ -8077,8 +8272,11 @@
       <c r="C66" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1141</v>
       </c>
@@ -8088,8 +8286,11 @@
       <c r="C67" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1142</v>
       </c>
@@ -8099,8 +8300,11 @@
       <c r="C68" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1148</v>
       </c>
@@ -8110,8 +8314,11 @@
       <c r="C69" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1149</v>
       </c>
@@ -8121,8 +8328,11 @@
       <c r="C70" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1158</v>
       </c>
@@ -8132,8 +8342,11 @@
       <c r="C71" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1159</v>
       </c>
@@ -8143,8 +8356,11 @@
       <c r="C72" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1164</v>
       </c>
@@ -8154,8 +8370,11 @@
       <c r="C73" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1173</v>
       </c>
@@ -8165,8 +8384,11 @@
       <c r="C74" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1174</v>
       </c>
@@ -8176,8 +8398,11 @@
       <c r="C75" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1179</v>
       </c>
@@ -8187,8 +8412,11 @@
       <c r="C76" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1193</v>
       </c>
@@ -8198,8 +8426,11 @@
       <c r="C77" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1194</v>
       </c>
@@ -8209,8 +8440,11 @@
       <c r="C78" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1204</v>
       </c>
@@ -8220,8 +8454,11 @@
       <c r="C79" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1205</v>
       </c>
@@ -8231,8 +8468,11 @@
       <c r="C80" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1211</v>
       </c>
@@ -8242,8 +8482,11 @@
       <c r="C81" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1212</v>
       </c>
@@ -8253,8 +8496,11 @@
       <c r="C82" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1225</v>
       </c>
@@ -8264,8 +8510,11 @@
       <c r="C83" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1241</v>
       </c>
@@ -8275,8 +8524,11 @@
       <c r="C84" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1251</v>
       </c>
@@ -8286,8 +8538,11 @@
       <c r="C85" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -8297,8 +8552,11 @@
       <c r="C86" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1270</v>
       </c>
@@ -8308,8 +8566,11 @@
       <c r="C87" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1280</v>
       </c>
@@ -8319,8 +8580,11 @@
       <c r="C88" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1285</v>
       </c>
@@ -8330,8 +8594,11 @@
       <c r="C89" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1294</v>
       </c>
@@ -8341,8 +8608,11 @@
       <c r="C90" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1303</v>
       </c>
@@ -8352,8 +8622,11 @@
       <c r="C91" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1308</v>
       </c>
@@ -8363,8 +8636,11 @@
       <c r="C92" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1321</v>
       </c>
@@ -8374,8 +8650,11 @@
       <c r="C93" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1322</v>
       </c>
@@ -8385,8 +8664,11 @@
       <c r="C94" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1327</v>
       </c>
@@ -8396,8 +8678,11 @@
       <c r="C95" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1336</v>
       </c>
@@ -8407,8 +8692,11 @@
       <c r="C96" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1341</v>
       </c>
@@ -8418,8 +8706,11 @@
       <c r="C97" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1350</v>
       </c>
@@ -8429,8 +8720,11 @@
       <c r="C98" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1355</v>
       </c>
@@ -8440,8 +8734,11 @@
       <c r="C99" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1364</v>
       </c>
@@ -8451,8 +8748,11 @@
       <c r="C100" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1369</v>
       </c>
@@ -8462,8 +8762,11 @@
       <c r="C101" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1378</v>
       </c>
@@ -8473,8 +8776,11 @@
       <c r="C102" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1384</v>
       </c>
@@ -8484,8 +8790,11 @@
       <c r="C103" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1393</v>
       </c>
@@ -8495,8 +8804,11 @@
       <c r="C104" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1398</v>
       </c>
@@ -8506,8 +8818,11 @@
       <c r="C105" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1407</v>
       </c>
@@ -8517,8 +8832,11 @@
       <c r="C106" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1412</v>
       </c>
@@ -8528,8 +8846,11 @@
       <c r="C107" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1421</v>
       </c>
@@ -8539,8 +8860,11 @@
       <c r="C108" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1435</v>
       </c>
@@ -8550,8 +8874,11 @@
       <c r="C109" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1440</v>
       </c>
@@ -8561,8 +8888,11 @@
       <c r="C110" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1445</v>
       </c>
@@ -8572,8 +8902,11 @@
       <c r="C111" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1454</v>
       </c>
@@ -8583,8 +8916,11 @@
       <c r="C112" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1459</v>
       </c>
@@ -8594,8 +8930,11 @@
       <c r="C113" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1468</v>
       </c>
@@ -8605,8 +8944,11 @@
       <c r="C114" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1479</v>
       </c>
@@ -8616,8 +8958,11 @@
       <c r="C115" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1484</v>
       </c>
@@ -8627,8 +8972,11 @@
       <c r="C116" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1495</v>
       </c>
@@ -8638,8 +8986,11 @@
       <c r="C117" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1501</v>
       </c>
@@ -8649,8 +9000,11 @@
       <c r="C118" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1511</v>
       </c>
@@ -8660,8 +9014,11 @@
       <c r="C119" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1517</v>
       </c>
@@ -8671,8 +9028,11 @@
       <c r="C120" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1527</v>
       </c>
@@ -8681,6 +9041,37 @@
       </c>
       <c r="C121" t="s">
         <v>1382</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1532</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1543</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -8693,8 +9084,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B241"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
